--- a/01_FGF21_parent_dataset.xlsx
+++ b/01_FGF21_parent_dataset.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10323"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alishaparveen/Desktop/Nicole/Intervention/Intervention/Codes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicole.power\Dropbox\PhD\Ergebnisse\2021_Intervention\Alisha\Codes\try\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15251988-D49B-5442-98CF-C62AE8073B76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="26880" windowHeight="15100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="7560" windowWidth="38385" windowHeight="17835"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -136,7 +135,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -587,7 +586,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -722,6 +721,9 @@
     <xf numFmtId="2" fontId="3" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -758,76 +760,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1104,48 +1039,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="166" zoomScaleNormal="166" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" customWidth="1"/>
-    <col min="6" max="6" width="19.5" customWidth="1"/>
-    <col min="7" max="7" width="15.5" customWidth="1"/>
-    <col min="8" max="9" width="16.6640625" customWidth="1"/>
-    <col min="10" max="10" width="13.1640625" customWidth="1"/>
-    <col min="11" max="11" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="9" width="16.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
-    <col min="13" max="13" width="18.83203125" customWidth="1"/>
-    <col min="14" max="14" width="14.1640625" customWidth="1"/>
-    <col min="15" max="15" width="20.33203125" customWidth="1"/>
-    <col min="16" max="16" width="17.6640625" customWidth="1"/>
-    <col min="17" max="17" width="19.6640625" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" customWidth="1"/>
+    <col min="15" max="15" width="20.28515625" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" customWidth="1"/>
+    <col min="17" max="17" width="19.7109375" customWidth="1"/>
     <col min="18" max="18" width="21" customWidth="1"/>
-    <col min="19" max="19" width="20.33203125" customWidth="1"/>
-    <col min="20" max="20" width="19.5" customWidth="1"/>
-    <col min="21" max="21" width="25.5" customWidth="1"/>
-    <col min="22" max="22" width="19.33203125" customWidth="1"/>
-    <col min="23" max="23" width="19.5" customWidth="1"/>
-    <col min="24" max="24" width="21.83203125" customWidth="1"/>
+    <col min="19" max="19" width="20.28515625" customWidth="1"/>
+    <col min="20" max="20" width="19.5703125" customWidth="1"/>
+    <col min="21" max="21" width="25.42578125" customWidth="1"/>
+    <col min="22" max="22" width="19.28515625" customWidth="1"/>
+    <col min="23" max="23" width="19.5703125" customWidth="1"/>
+    <col min="24" max="24" width="21.85546875" customWidth="1"/>
     <col min="25" max="25" width="21" customWidth="1"/>
-    <col min="26" max="26" width="23.5" customWidth="1"/>
+    <col min="26" max="26" width="23.5703125" customWidth="1"/>
     <col min="27" max="27" width="19" customWidth="1"/>
-    <col min="28" max="28" width="20.33203125" customWidth="1"/>
-    <col min="29" max="29" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.5" customWidth="1"/>
-    <col min="31" max="31" width="25.6640625" customWidth="1"/>
-    <col min="32" max="32" width="18.5" customWidth="1"/>
+    <col min="28" max="28" width="20.28515625" customWidth="1"/>
+    <col min="29" max="29" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.5703125" customWidth="1"/>
+    <col min="31" max="31" width="25.7109375" customWidth="1"/>
+    <col min="32" max="32" width="18.42578125" customWidth="1"/>
     <col min="33" max="33" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="5" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="5" customFormat="1" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1246,7 +1183,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1327,7 +1264,7 @@
       <c r="AF2" s="16"/>
       <c r="AG2" s="17"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -1408,7 +1345,7 @@
       <c r="AF3" s="16"/>
       <c r="AG3" s="17"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -1489,7 +1426,7 @@
       <c r="AF4" s="16"/>
       <c r="AG4" s="17"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -1590,7 +1527,7 @@
         <v>36.908096571962126</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>1</v>
       </c>
@@ -1691,7 +1628,7 @@
         <v>36.511534871316172</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -1792,7 +1729,7 @@
         <v>23.986666666666665</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>1</v>
       </c>
@@ -1893,7 +1830,7 @@
         <v>34.64</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -1974,7 +1911,7 @@
       <c r="AF9" s="16"/>
       <c r="AG9" s="17"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>1</v>
       </c>
@@ -2075,7 +2012,7 @@
         <v>39.92</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>1</v>
       </c>
@@ -2176,7 +2113,7 @@
         <v>38.546666666666667</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>1</v>
       </c>
@@ -2277,7 +2214,7 @@
         <v>37.61333333333333</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>1</v>
       </c>
@@ -2378,7 +2315,7 @@
         <v>38.159999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:33" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
         <v>1</v>
       </c>
@@ -2479,7 +2416,7 @@
         <v>50.973592958122168</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="34">
         <v>2</v>
       </c>
@@ -2560,7 +2497,7 @@
       <c r="AF15" s="42"/>
       <c r="AG15" s="20"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="34">
         <v>2</v>
       </c>
@@ -2641,7 +2578,7 @@
       <c r="AF16" s="16"/>
       <c r="AG16" s="17"/>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="34">
         <v>2</v>
       </c>
@@ -2722,7 +2659,7 @@
       <c r="AF17" s="16"/>
       <c r="AG17" s="17"/>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="34">
         <v>2</v>
       </c>
@@ -2803,7 +2740,7 @@
       <c r="AF18" s="16"/>
       <c r="AG18" s="17"/>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="34">
         <v>2</v>
       </c>
@@ -2884,7 +2821,7 @@
       <c r="AF19" s="16"/>
       <c r="AG19" s="17"/>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="34">
         <v>2</v>
       </c>
@@ -2985,7 +2922,7 @@
         <v>37.866666666666667</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="34">
         <v>2</v>
       </c>
@@ -3086,7 +3023,7 @@
         <v>51.033471129483928</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="34">
         <v>2</v>
       </c>
@@ -3187,7 +3124,7 @@
         <v>30.226666666666667</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="34">
         <v>2</v>
       </c>
@@ -3288,7 +3225,7 @@
         <v>46.346666666666664</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="34">
         <v>2</v>
       </c>
@@ -3389,7 +3326,7 @@
         <v>30.880000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="34">
         <v>2</v>
       </c>
@@ -3490,7 +3427,7 @@
         <v>38.213333333333331</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="34">
         <v>2</v>
       </c>
@@ -3591,7 +3528,7 @@
         <v>15.933333333333334</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="43">
         <v>2</v>
       </c>
@@ -3692,7 +3629,7 @@
         <v>35.186666666666667</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="34">
         <v>3</v>
       </c>
@@ -3749,7 +3686,7 @@
       <c r="AF28" s="42"/>
       <c r="AG28" s="20"/>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="34">
         <v>3</v>
       </c>
@@ -3830,7 +3767,7 @@
       <c r="AF29" s="16"/>
       <c r="AG29" s="17"/>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="34">
         <v>3</v>
       </c>
@@ -3887,7 +3824,7 @@
       <c r="AF30" s="16"/>
       <c r="AG30" s="17"/>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="34">
         <v>3</v>
       </c>
@@ -3944,7 +3881,7 @@
       <c r="AF31" s="16"/>
       <c r="AG31" s="17"/>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" s="34">
         <v>3</v>
       </c>
@@ -4025,7 +3962,7 @@
       <c r="AF32" s="16"/>
       <c r="AG32" s="17"/>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" s="34">
         <v>3</v>
       </c>
@@ -4126,7 +4063,7 @@
         <v>35.96</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" s="34">
         <v>3</v>
       </c>
@@ -4227,7 +4164,7 @@
         <v>21.466666666666669</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" s="34">
         <v>3</v>
       </c>
@@ -4328,7 +4265,7 @@
         <v>28.999999999999996</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" s="34">
         <v>3</v>
       </c>
@@ -4429,7 +4366,7 @@
         <v>31.373333333333335</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="34">
         <v>3</v>
       </c>
@@ -4530,7 +4467,7 @@
         <v>40.18155119476706</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" s="34">
         <v>3</v>
       </c>
@@ -4631,7 +4568,7 @@
         <v>45.666666666666664</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" s="34">
         <v>3</v>
       </c>
@@ -4732,7 +4669,7 @@
         <v>33.373333333333335</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" s="34">
         <v>3</v>
       </c>
@@ -4833,7 +4770,7 @@
         <v>15.413333333333334</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" s="34">
         <v>3</v>
       </c>
@@ -4934,7 +4871,7 @@
         <v>33.813333333333333</v>
       </c>
     </row>
-    <row r="42" spans="1:33" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:33" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="43">
         <v>3</v>
       </c>
@@ -5011,7 +4948,7 @@
         <v>29.586666666666666</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" s="34">
         <v>4</v>
       </c>
@@ -5092,7 +5029,7 @@
       <c r="AF43" s="42"/>
       <c r="AG43" s="20"/>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" s="34">
         <v>4</v>
       </c>
@@ -5173,7 +5110,7 @@
       <c r="AF44" s="16"/>
       <c r="AG44" s="17"/>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" s="34">
         <v>4</v>
       </c>
@@ -5252,7 +5189,7 @@
       <c r="AF45" s="16"/>
       <c r="AG45" s="17"/>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" s="34">
         <v>4</v>
       </c>
@@ -5333,7 +5270,7 @@
       <c r="AF46" s="16"/>
       <c r="AG46" s="17"/>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" s="34">
         <v>4</v>
       </c>
@@ -5414,7 +5351,7 @@
       <c r="AF47" s="16"/>
       <c r="AG47" s="17"/>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" s="34">
         <v>4</v>
       </c>
@@ -5515,1030 +5452,946 @@
         <v>31.96</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A49" s="34">
         <v>4</v>
       </c>
-      <c r="B49" s="7">
-        <v>27.5</v>
-      </c>
-      <c r="C49" s="8">
-        <v>338.81900000000002</v>
-      </c>
-      <c r="D49" s="9">
-        <v>0.99</v>
-      </c>
-      <c r="E49" s="9">
-        <v>0.54</v>
-      </c>
-      <c r="F49" s="10">
-        <v>524</v>
-      </c>
-      <c r="G49" s="11">
-        <v>1</v>
-      </c>
-      <c r="H49" s="12">
-        <v>18</v>
-      </c>
-      <c r="I49" s="13">
-        <v>520</v>
-      </c>
-      <c r="J49" s="11">
-        <v>1</v>
-      </c>
-      <c r="K49" s="14">
-        <v>27</v>
-      </c>
-      <c r="L49" s="15">
-        <v>6.7324400000000004</v>
-      </c>
-      <c r="M49" s="16">
-        <v>77.176400000000001</v>
-      </c>
-      <c r="N49" s="16">
-        <v>15.9712</v>
-      </c>
-      <c r="O49" s="16">
-        <v>45</v>
-      </c>
-      <c r="P49" s="16">
-        <v>11.111111111111111</v>
-      </c>
-      <c r="Q49" s="16">
-        <v>40</v>
-      </c>
-      <c r="R49" s="16">
-        <v>48.888888888888886</v>
-      </c>
-      <c r="S49" s="16">
-        <v>6</v>
-      </c>
-      <c r="T49" s="16">
-        <v>5.0583900000000002</v>
-      </c>
-      <c r="U49" s="16">
-        <v>1505.38</v>
-      </c>
-      <c r="V49" s="16">
-        <v>57.512300000000003</v>
-      </c>
-      <c r="W49" s="17">
-        <v>42.407699999999998</v>
-      </c>
-      <c r="X49" s="15">
-        <v>44.44</v>
-      </c>
-      <c r="Y49" s="16">
-        <v>85.2</v>
-      </c>
-      <c r="Z49" s="11">
-        <v>146</v>
-      </c>
-      <c r="AA49" s="16">
-        <v>21.232876712328768</v>
-      </c>
-      <c r="AB49" s="16">
-        <v>78.767123287671239</v>
-      </c>
-      <c r="AC49" s="11">
-        <v>23</v>
-      </c>
-      <c r="AD49" s="16">
-        <v>6.9653200000000002</v>
-      </c>
-      <c r="AE49" s="16">
-        <v>2088.48</v>
-      </c>
-      <c r="AF49" s="16">
-        <v>66.56</v>
-      </c>
-      <c r="AG49" s="17">
-        <v>33.44</v>
-      </c>
-    </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B49" s="18"/>
+      <c r="C49" s="46">
+        <v>2031.33</v>
+      </c>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="16"/>
+      <c r="Q49" s="16"/>
+      <c r="R49" s="16"/>
+      <c r="S49" s="16"/>
+      <c r="T49" s="16"/>
+      <c r="U49" s="16"/>
+      <c r="V49" s="16"/>
+      <c r="W49" s="17"/>
+      <c r="X49" s="15"/>
+      <c r="Y49" s="16"/>
+      <c r="Z49" s="11"/>
+      <c r="AA49" s="16"/>
+      <c r="AB49" s="16"/>
+      <c r="AC49" s="11"/>
+      <c r="AD49" s="16"/>
+      <c r="AE49" s="16"/>
+      <c r="AF49" s="16"/>
+      <c r="AG49" s="17"/>
+    </row>
+    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A50" s="34">
         <v>4</v>
       </c>
-      <c r="B50" s="18">
-        <v>26.16</v>
-      </c>
-      <c r="C50" s="19">
-        <v>395.50700000000001</v>
+      <c r="B50" s="7">
+        <v>27.5</v>
+      </c>
+      <c r="C50" s="8">
+        <v>338.81900000000002</v>
       </c>
       <c r="D50" s="9">
-        <v>0.46</v>
+        <v>0.99</v>
       </c>
       <c r="E50" s="9">
-        <v>0.46</v>
+        <v>0.54</v>
       </c>
       <c r="F50" s="10">
-        <v>590</v>
+        <v>524</v>
       </c>
       <c r="G50" s="11">
         <v>1</v>
       </c>
       <c r="H50" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I50" s="13">
-        <v>586</v>
+        <v>520</v>
       </c>
       <c r="J50" s="11">
         <v>1</v>
       </c>
       <c r="K50" s="14">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="L50" s="15">
-        <v>1.5198</v>
+        <v>6.7324400000000004</v>
       </c>
       <c r="M50" s="16">
-        <v>86.695099999999996</v>
+        <v>77.176400000000001</v>
       </c>
       <c r="N50" s="16">
-        <v>11.0519</v>
+        <v>15.9712</v>
       </c>
       <c r="O50" s="16">
+        <v>45</v>
+      </c>
+      <c r="P50" s="16">
+        <v>11.111111111111111</v>
+      </c>
+      <c r="Q50" s="16">
         <v>40</v>
       </c>
-      <c r="P50" s="16">
-        <v>15</v>
-      </c>
-      <c r="Q50" s="16">
-        <v>32.5</v>
-      </c>
       <c r="R50" s="16">
-        <v>52.5</v>
+        <v>48.888888888888886</v>
       </c>
       <c r="S50" s="16">
         <v>6</v>
       </c>
       <c r="T50" s="16">
-        <v>3.0985200000000002</v>
+        <v>5.0583900000000002</v>
       </c>
       <c r="U50" s="16">
-        <v>920.13599999999997</v>
+        <v>1505.38</v>
       </c>
       <c r="V50" s="16">
-        <v>37.101700000000001</v>
+        <v>57.512300000000003</v>
       </c>
       <c r="W50" s="17">
-        <v>62.751600000000003</v>
+        <v>42.407699999999998</v>
       </c>
       <c r="X50" s="15">
-        <v>22.4</v>
+        <v>44.44</v>
       </c>
       <c r="Y50" s="16">
-        <v>92.546666666666667</v>
+        <v>85.2</v>
       </c>
       <c r="Z50" s="11">
-        <v>104</v>
+        <v>146</v>
       </c>
       <c r="AA50" s="16">
-        <v>15.384615384615385</v>
+        <v>21.232876712328768</v>
       </c>
       <c r="AB50" s="16">
-        <v>84.615384615384613</v>
+        <v>78.767123287671239</v>
       </c>
       <c r="AC50" s="11">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AD50" s="16">
-        <v>5.0436500000000004</v>
+        <v>6.9653200000000002</v>
       </c>
       <c r="AE50" s="16">
-        <v>1511.88</v>
+        <v>2088.48</v>
       </c>
       <c r="AF50" s="16">
-        <v>53.146666666666661</v>
+        <v>66.56</v>
       </c>
       <c r="AG50" s="17">
-        <v>46.853333333333339</v>
-      </c>
-    </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
+        <v>33.44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A51" s="34">
         <v>4</v>
       </c>
-      <c r="B51" s="7">
-        <v>25.5</v>
-      </c>
-      <c r="C51" s="8">
-        <v>376.30700000000002</v>
+      <c r="B51" s="18">
+        <v>26.16</v>
+      </c>
+      <c r="C51" s="19">
+        <v>395.50700000000001</v>
       </c>
       <c r="D51" s="9">
-        <v>0.53</v>
+        <v>0.46</v>
       </c>
       <c r="E51" s="9">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="F51" s="10">
-        <v>655</v>
+        <v>590</v>
       </c>
       <c r="G51" s="11">
         <v>1</v>
       </c>
       <c r="H51" s="12">
-        <v>260</v>
+        <v>23</v>
       </c>
       <c r="I51" s="13">
-        <v>652</v>
+        <v>586</v>
       </c>
       <c r="J51" s="11">
         <v>1</v>
       </c>
       <c r="K51" s="14">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="L51" s="15">
-        <v>30.289300000000001</v>
+        <v>1.5198</v>
       </c>
       <c r="M51" s="16">
-        <v>60.045299999999997</v>
+        <v>86.695099999999996</v>
       </c>
       <c r="N51" s="16">
-        <v>9.5453899999999994</v>
+        <v>11.0519</v>
       </c>
       <c r="O51" s="16">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P51" s="16">
-        <v>22.222222222222221</v>
+        <v>15</v>
       </c>
       <c r="Q51" s="16">
-        <v>28.888888888888886</v>
+        <v>32.5</v>
       </c>
       <c r="R51" s="16">
-        <v>48.888888888888886</v>
+        <v>52.5</v>
       </c>
       <c r="S51" s="16">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="T51" s="16">
-        <v>5.0372599999999998</v>
+        <v>3.0985200000000002</v>
       </c>
       <c r="U51" s="16">
-        <v>1451.94</v>
+        <v>920.13599999999997</v>
       </c>
       <c r="V51" s="16">
-        <v>58.712200000000003</v>
+        <v>37.101700000000001</v>
       </c>
       <c r="W51" s="17">
-        <v>40.794600000000003</v>
+        <v>62.751600000000003</v>
       </c>
       <c r="X51" s="15">
-        <v>26.96</v>
+        <v>22.4</v>
       </c>
       <c r="Y51" s="16">
-        <v>91.026666666666671</v>
+        <v>92.546666666666667</v>
       </c>
       <c r="Z51" s="11">
-        <v>175</v>
+        <v>104</v>
       </c>
       <c r="AA51" s="16">
-        <v>21.142857142857142</v>
+        <v>15.384615384615385</v>
       </c>
       <c r="AB51" s="16">
-        <v>78.857142857142861</v>
+        <v>84.615384615384613</v>
       </c>
       <c r="AC51" s="11">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AD51" s="16">
-        <v>7.5846799999999996</v>
+        <v>5.0436500000000004</v>
       </c>
       <c r="AE51" s="16">
-        <v>2274.19</v>
+        <v>1511.88</v>
       </c>
       <c r="AF51" s="16">
-        <v>72.653333333333336</v>
+        <v>53.146666666666661</v>
       </c>
       <c r="AG51" s="17">
-        <v>27.346666666666668</v>
-      </c>
-    </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
+        <v>46.853333333333339</v>
+      </c>
+    </row>
+    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A52" s="34">
         <v>4</v>
       </c>
       <c r="B52" s="7">
-        <v>26.7</v>
+        <v>25.5</v>
       </c>
       <c r="C52" s="8">
-        <v>687.11800000000005</v>
+        <v>376.30700000000002</v>
       </c>
       <c r="D52" s="9">
-        <v>0.8</v>
+        <v>0.53</v>
       </c>
       <c r="E52" s="9">
-        <v>0.7</v>
+        <v>0.48</v>
       </c>
       <c r="F52" s="10">
-        <v>409</v>
-      </c>
-      <c r="G52" s="46">
+        <v>655</v>
+      </c>
+      <c r="G52" s="11">
         <v>1</v>
       </c>
       <c r="H52" s="12">
-        <v>32</v>
-      </c>
-      <c r="I52" s="47">
-        <v>401</v>
+        <v>260</v>
+      </c>
+      <c r="I52" s="13">
+        <v>652</v>
       </c>
       <c r="J52" s="11">
         <v>1</v>
       </c>
       <c r="K52" s="14">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="L52" s="15">
-        <v>5.89255</v>
+        <v>30.289300000000001</v>
       </c>
       <c r="M52" s="16">
-        <v>85.335300000000004</v>
+        <v>60.045299999999997</v>
       </c>
       <c r="N52" s="16">
-        <v>8.7454999999999998</v>
+        <v>9.5453899999999994</v>
       </c>
       <c r="O52" s="16">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="P52" s="16">
-        <v>15.384615384615385</v>
+        <v>22.222222222222221</v>
       </c>
       <c r="Q52" s="16">
-        <v>34.615384615384613</v>
+        <v>28.888888888888886</v>
       </c>
       <c r="R52" s="16">
-        <v>50</v>
+        <v>48.888888888888886</v>
       </c>
       <c r="S52" s="16">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="T52" s="16">
-        <v>3.1340499999999998</v>
+        <v>5.0372599999999998</v>
       </c>
       <c r="U52" s="16">
-        <v>920.15599999999995</v>
+        <v>1451.94</v>
       </c>
       <c r="V52" s="16">
-        <v>40.407899999999998</v>
+        <v>58.712200000000003</v>
       </c>
       <c r="W52" s="17">
-        <v>59.2988</v>
+        <v>40.794600000000003</v>
       </c>
       <c r="X52" s="15">
-        <v>15.84</v>
+        <v>26.96</v>
       </c>
       <c r="Y52" s="16">
-        <v>94.733333333333348</v>
+        <v>91.026666666666671</v>
       </c>
       <c r="Z52" s="11">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="AA52" s="16">
-        <v>17.073170731707318</v>
+        <v>21.142857142857142</v>
       </c>
       <c r="AB52" s="16">
-        <v>82.926829268292678</v>
+        <v>78.857142857142861</v>
       </c>
       <c r="AC52" s="11">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AD52" s="16">
-        <v>8.3934899999999999</v>
+        <v>7.5846799999999996</v>
       </c>
       <c r="AE52" s="16">
-        <v>2516.0300000000002</v>
+        <v>2274.19</v>
       </c>
       <c r="AF52" s="16">
-        <v>69.933333333333337</v>
+        <v>72.653333333333336</v>
       </c>
       <c r="AG52" s="17">
-        <v>30.06666666666667</v>
-      </c>
-    </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
+        <v>27.346666666666668</v>
+      </c>
+    </row>
+    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A53" s="34">
         <v>4</v>
       </c>
-      <c r="B53" s="18">
-        <v>25.5</v>
-      </c>
-      <c r="C53" s="19"/>
-      <c r="D53" s="9">
-        <v>0.52</v>
-      </c>
-      <c r="E53" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="F53" s="10">
-        <v>504</v>
-      </c>
-      <c r="G53" s="46">
-        <v>1</v>
-      </c>
-      <c r="H53" s="12">
-        <v>35</v>
-      </c>
-      <c r="I53" s="47">
-        <v>498</v>
-      </c>
-      <c r="J53" s="11">
-        <v>1</v>
-      </c>
-      <c r="K53" s="14">
-        <v>32</v>
-      </c>
-      <c r="L53" s="15">
-        <v>20.543900000000001</v>
-      </c>
-      <c r="M53" s="16">
-        <v>61.205199999999998</v>
-      </c>
-      <c r="N53" s="16">
-        <v>18.010899999999999</v>
-      </c>
-      <c r="O53" s="16">
-        <v>41</v>
-      </c>
-      <c r="P53" s="16">
-        <v>19.512195121951219</v>
-      </c>
-      <c r="Q53" s="16">
-        <v>29.268292682926827</v>
-      </c>
-      <c r="R53" s="16">
-        <v>51.219512195121951</v>
-      </c>
-      <c r="S53" s="16">
-        <v>22</v>
-      </c>
-      <c r="T53" s="16">
-        <v>3.9921199999999999</v>
-      </c>
-      <c r="U53" s="16">
-        <v>1176.72</v>
-      </c>
-      <c r="V53" s="16">
-        <v>50.0867</v>
-      </c>
-      <c r="W53" s="17">
-        <v>49.606699999999996</v>
-      </c>
-      <c r="X53" s="15">
-        <v>12.360000000000001</v>
-      </c>
-      <c r="Y53" s="16">
-        <v>95.893333333333317</v>
-      </c>
-      <c r="Z53" s="11">
-        <v>131</v>
-      </c>
-      <c r="AA53" s="16">
-        <v>8.3969465648854964</v>
-      </c>
-      <c r="AB53" s="16">
-        <v>91.603053435114504</v>
-      </c>
-      <c r="AC53" s="11">
-        <v>17</v>
-      </c>
-      <c r="AD53" s="16">
-        <v>6.2252700000000001</v>
-      </c>
-      <c r="AE53" s="16">
-        <v>1866.09</v>
-      </c>
-      <c r="AF53" s="16">
-        <v>62.8</v>
-      </c>
-      <c r="AG53" s="17">
-        <v>37.200000000000003</v>
-      </c>
-    </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B53" s="18"/>
+      <c r="C53" s="46">
+        <v>861.23299999999995</v>
+      </c>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="16"/>
+      <c r="N53" s="16"/>
+      <c r="O53" s="16"/>
+      <c r="P53" s="16"/>
+      <c r="Q53" s="16"/>
+      <c r="R53" s="16"/>
+      <c r="S53" s="16"/>
+      <c r="T53" s="16"/>
+      <c r="U53" s="16"/>
+      <c r="V53" s="16"/>
+      <c r="W53" s="17"/>
+      <c r="X53" s="15"/>
+      <c r="Y53" s="16"/>
+      <c r="Z53" s="11"/>
+      <c r="AA53" s="16"/>
+      <c r="AB53" s="16"/>
+      <c r="AC53" s="11"/>
+      <c r="AD53" s="16"/>
+      <c r="AE53" s="16"/>
+      <c r="AF53" s="16"/>
+      <c r="AG53" s="20"/>
+    </row>
+    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A54" s="34">
         <v>4</v>
       </c>
       <c r="B54" s="7">
+        <v>26.7</v>
+      </c>
+      <c r="C54" s="8">
+        <v>687.11800000000005</v>
+      </c>
+      <c r="D54" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="E54" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="F54" s="10">
+        <v>409</v>
+      </c>
+      <c r="G54" s="47">
+        <v>1</v>
+      </c>
+      <c r="H54" s="12">
+        <v>32</v>
+      </c>
+      <c r="I54" s="48">
+        <v>401</v>
+      </c>
+      <c r="J54" s="11">
+        <v>1</v>
+      </c>
+      <c r="K54" s="14">
+        <v>40</v>
+      </c>
+      <c r="L54" s="15">
+        <v>5.89255</v>
+      </c>
+      <c r="M54" s="16">
+        <v>85.335300000000004</v>
+      </c>
+      <c r="N54" s="16">
+        <v>8.7454999999999998</v>
+      </c>
+      <c r="O54" s="16">
+        <v>26</v>
+      </c>
+      <c r="P54" s="16">
+        <v>15.384615384615385</v>
+      </c>
+      <c r="Q54" s="16">
+        <v>34.615384615384613</v>
+      </c>
+      <c r="R54" s="16">
+        <v>50</v>
+      </c>
+      <c r="S54" s="16">
+        <v>6</v>
+      </c>
+      <c r="T54" s="16">
+        <v>3.1340499999999998</v>
+      </c>
+      <c r="U54" s="16">
+        <v>920.15599999999995</v>
+      </c>
+      <c r="V54" s="16">
+        <v>40.407899999999998</v>
+      </c>
+      <c r="W54" s="17">
+        <v>59.2988</v>
+      </c>
+      <c r="X54" s="15">
+        <v>15.84</v>
+      </c>
+      <c r="Y54" s="16">
+        <v>94.733333333333348</v>
+      </c>
+      <c r="Z54" s="11">
+        <v>164</v>
+      </c>
+      <c r="AA54" s="16">
+        <v>17.073170731707318</v>
+      </c>
+      <c r="AB54" s="16">
+        <v>82.926829268292678</v>
+      </c>
+      <c r="AC54" s="11">
+        <v>24</v>
+      </c>
+      <c r="AD54" s="16">
+        <v>8.3934899999999999</v>
+      </c>
+      <c r="AE54" s="16">
+        <v>2516.0300000000002</v>
+      </c>
+      <c r="AF54" s="16">
+        <v>69.933333333333337</v>
+      </c>
+      <c r="AG54" s="17">
+        <v>30.06666666666667</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A55" s="34">
+        <v>4</v>
+      </c>
+      <c r="B55" s="18">
+        <v>25.5</v>
+      </c>
+      <c r="C55" s="19"/>
+      <c r="D55" s="9">
+        <v>0.52</v>
+      </c>
+      <c r="E55" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="F55" s="10">
+        <v>504</v>
+      </c>
+      <c r="G55" s="47">
+        <v>1</v>
+      </c>
+      <c r="H55" s="12">
+        <v>35</v>
+      </c>
+      <c r="I55" s="48">
+        <v>498</v>
+      </c>
+      <c r="J55" s="11">
+        <v>1</v>
+      </c>
+      <c r="K55" s="14">
+        <v>32</v>
+      </c>
+      <c r="L55" s="15">
+        <v>20.543900000000001</v>
+      </c>
+      <c r="M55" s="16">
+        <v>61.205199999999998</v>
+      </c>
+      <c r="N55" s="16">
+        <v>18.010899999999999</v>
+      </c>
+      <c r="O55" s="16">
+        <v>41</v>
+      </c>
+      <c r="P55" s="16">
+        <v>19.512195121951219</v>
+      </c>
+      <c r="Q55" s="16">
+        <v>29.268292682926827</v>
+      </c>
+      <c r="R55" s="16">
+        <v>51.219512195121951</v>
+      </c>
+      <c r="S55" s="16">
+        <v>22</v>
+      </c>
+      <c r="T55" s="16">
+        <v>3.9921199999999999</v>
+      </c>
+      <c r="U55" s="16">
+        <v>1176.72</v>
+      </c>
+      <c r="V55" s="16">
+        <v>50.0867</v>
+      </c>
+      <c r="W55" s="17">
+        <v>49.606699999999996</v>
+      </c>
+      <c r="X55" s="15">
+        <v>12.360000000000001</v>
+      </c>
+      <c r="Y55" s="16">
+        <v>95.893333333333317</v>
+      </c>
+      <c r="Z55" s="11">
+        <v>131</v>
+      </c>
+      <c r="AA55" s="16">
+        <v>8.3969465648854964</v>
+      </c>
+      <c r="AB55" s="16">
+        <v>91.603053435114504</v>
+      </c>
+      <c r="AC55" s="11">
+        <v>17</v>
+      </c>
+      <c r="AD55" s="16">
+        <v>6.2252700000000001</v>
+      </c>
+      <c r="AE55" s="16">
+        <v>1866.09</v>
+      </c>
+      <c r="AF55" s="16">
+        <v>62.8</v>
+      </c>
+      <c r="AG55" s="17">
+        <v>37.200000000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A56" s="34">
+        <v>4</v>
+      </c>
+      <c r="B56" s="7">
         <v>26.1</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C56" s="8">
         <v>165.68299999999999</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D56" s="9">
         <v>0.66</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E56" s="9">
         <v>0.44</v>
       </c>
-      <c r="F54" s="10">
+      <c r="F56" s="10">
         <v>433</v>
       </c>
-      <c r="G54" s="46">
-        <v>1</v>
-      </c>
-      <c r="H54" s="12">
+      <c r="G56" s="47">
+        <v>1</v>
+      </c>
+      <c r="H56" s="12">
         <v>17</v>
       </c>
-      <c r="I54" s="47">
+      <c r="I56" s="48">
         <v>433</v>
       </c>
-      <c r="J54" s="11">
-        <v>1</v>
-      </c>
-      <c r="K54" s="14">
+      <c r="J56" s="11">
+        <v>1</v>
+      </c>
+      <c r="K56" s="14">
         <v>68</v>
       </c>
-      <c r="L54" s="15">
+      <c r="L56" s="15">
         <v>16.104500000000002</v>
       </c>
-      <c r="M54" s="16">
+      <c r="M56" s="16">
         <v>62.698300000000003</v>
       </c>
-      <c r="N54" s="16">
+      <c r="N56" s="16">
         <v>19.4907</v>
       </c>
-      <c r="O54" s="16">
+      <c r="O56" s="16">
         <v>43</v>
       </c>
-      <c r="P54" s="16">
+      <c r="P56" s="16">
         <v>16.279069767441861</v>
       </c>
-      <c r="Q54" s="16">
+      <c r="Q56" s="16">
         <v>37.209302325581397</v>
       </c>
-      <c r="R54" s="16">
+      <c r="R56" s="16">
         <v>46.511627906976742</v>
       </c>
-      <c r="S54" s="16">
+      <c r="S56" s="16">
         <v>20</v>
       </c>
-      <c r="T54" s="16">
+      <c r="T56" s="16">
         <v>4.2794800000000004</v>
       </c>
-      <c r="U54" s="16">
+      <c r="U56" s="16">
         <v>1275.97</v>
       </c>
-      <c r="V54" s="16">
+      <c r="V56" s="16">
         <v>49.926699999999997</v>
       </c>
-      <c r="W54" s="17">
+      <c r="W56" s="17">
         <v>49.94</v>
       </c>
-      <c r="X54" s="15">
+      <c r="X56" s="15">
         <v>9.879999999999999</v>
       </c>
-      <c r="Y54" s="16">
+      <c r="Y56" s="16">
         <v>96.72</v>
       </c>
-      <c r="Z54" s="11">
+      <c r="Z56" s="11">
         <v>184</v>
       </c>
-      <c r="AA54" s="16">
+      <c r="AA56" s="16">
         <v>11.413043478260869</v>
       </c>
-      <c r="AB54" s="16">
+      <c r="AB56" s="16">
         <v>88.58695652173914</v>
       </c>
-      <c r="AC54" s="11">
+      <c r="AC56" s="11">
         <v>18</v>
       </c>
-      <c r="AD54" s="16">
+      <c r="AD56" s="16">
         <v>8.71434</v>
       </c>
-      <c r="AE54" s="16">
+      <c r="AE56" s="16">
         <v>2612.91</v>
       </c>
-      <c r="AF54" s="16">
+      <c r="AF56" s="16">
         <v>72.52</v>
       </c>
-      <c r="AG54" s="17">
+      <c r="AG56" s="17">
         <v>27.48</v>
       </c>
     </row>
-    <row r="55" spans="1:34" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="43">
+    <row r="57" spans="1:34" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="43">
         <v>4</v>
       </c>
-      <c r="B55" s="44">
+      <c r="B57" s="44">
         <v>24.6</v>
       </c>
-      <c r="C55" s="48">
+      <c r="C57" s="49">
         <v>7074</v>
       </c>
-      <c r="D55" s="24">
+      <c r="D57" s="24">
         <v>0.4</v>
       </c>
-      <c r="E55" s="24">
+      <c r="E57" s="24">
         <v>0.3</v>
       </c>
-      <c r="F55" s="25">
+      <c r="F57" s="25">
         <v>474</v>
       </c>
-      <c r="G55" s="49">
-        <v>1</v>
-      </c>
-      <c r="H55" s="27">
+      <c r="G57" s="50">
+        <v>1</v>
+      </c>
+      <c r="H57" s="27">
         <v>63</v>
       </c>
-      <c r="I55" s="50">
+      <c r="I57" s="51">
         <v>466</v>
       </c>
-      <c r="J55" s="26">
-        <v>1</v>
-      </c>
-      <c r="K55" s="29">
+      <c r="J57" s="26">
+        <v>1</v>
+      </c>
+      <c r="K57" s="29">
         <v>8</v>
       </c>
-      <c r="L55" s="30">
+      <c r="L57" s="30">
         <v>19.4907</v>
       </c>
-      <c r="M55" s="31">
+      <c r="M57" s="31">
         <v>62.738300000000002</v>
       </c>
-      <c r="N55" s="31">
+      <c r="N57" s="31">
         <v>17.504300000000001</v>
       </c>
-      <c r="O55" s="31">
+      <c r="O57" s="31">
         <v>40</v>
       </c>
-      <c r="P55" s="31">
+      <c r="P57" s="31">
         <v>20</v>
       </c>
-      <c r="Q55" s="31">
+      <c r="Q57" s="31">
         <v>30</v>
       </c>
-      <c r="R55" s="31">
+      <c r="R57" s="31">
         <v>50</v>
       </c>
-      <c r="S55" s="31">
+      <c r="S57" s="31">
         <v>16</v>
       </c>
-      <c r="T55" s="31">
+      <c r="T57" s="31">
         <v>3.8965700000000001</v>
       </c>
-      <c r="U55" s="31">
+      <c r="U57" s="31">
         <v>1125.17</v>
       </c>
-      <c r="V55" s="31">
+      <c r="V57" s="31">
         <v>48.740200000000002</v>
       </c>
-      <c r="W55" s="32">
+      <c r="W57" s="32">
         <v>50.6999</v>
       </c>
-      <c r="X55" s="30">
+      <c r="X57" s="30">
         <v>17.919999999999998</v>
       </c>
-      <c r="Y55" s="31">
+      <c r="Y57" s="31">
         <v>94.04</v>
       </c>
-      <c r="Z55" s="26">
+      <c r="Z57" s="26">
         <v>193</v>
       </c>
-      <c r="AA55" s="31">
+      <c r="AA57" s="31">
         <v>16.580310880829018</v>
       </c>
-      <c r="AB55" s="31">
+      <c r="AB57" s="31">
         <v>83.419689119170982</v>
       </c>
-      <c r="AC55" s="26">
+      <c r="AC57" s="26">
         <v>23</v>
       </c>
-      <c r="AD55" s="31">
+      <c r="AD57" s="31">
         <v>9.2006499999999996</v>
       </c>
-      <c r="AE55" s="31">
+      <c r="AE57" s="31">
         <v>2758.72</v>
       </c>
-      <c r="AF55" s="31">
+      <c r="AF57" s="31">
         <v>76.08</v>
       </c>
-      <c r="AG55" s="32">
+      <c r="AG57" s="32">
         <v>23.92</v>
       </c>
-      <c r="AH55"/>
-    </row>
-    <row r="56" spans="1:34" s="69" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="57">
-        <v>5</v>
-      </c>
-      <c r="B56" s="70">
-        <v>58.5</v>
-      </c>
-      <c r="C56" s="71">
-        <v>1257.51</v>
-      </c>
-      <c r="D56" s="72">
-        <v>6.85</v>
-      </c>
-      <c r="E56" s="72">
-        <v>4.03</v>
-      </c>
-      <c r="F56" s="73">
-        <v>515</v>
-      </c>
-      <c r="G56" s="74">
-        <v>1</v>
-      </c>
-      <c r="H56" s="75">
-        <v>172</v>
-      </c>
-      <c r="I56" s="76">
-        <v>532</v>
-      </c>
-      <c r="J56" s="74">
-        <v>1</v>
-      </c>
-      <c r="K56" s="77">
-        <v>120</v>
-      </c>
-      <c r="L56" s="78"/>
-      <c r="M56" s="79"/>
-      <c r="N56" s="79"/>
-      <c r="O56" s="79"/>
-      <c r="P56" s="79"/>
-      <c r="Q56" s="79"/>
-      <c r="R56" s="79"/>
-      <c r="S56" s="79"/>
-      <c r="T56" s="79"/>
-      <c r="U56" s="79"/>
-      <c r="V56" s="79"/>
-      <c r="W56" s="80"/>
-      <c r="X56" s="78"/>
-      <c r="Y56" s="79"/>
-      <c r="Z56" s="74"/>
-      <c r="AA56" s="79"/>
-      <c r="AB56" s="79"/>
-      <c r="AC56" s="74"/>
-      <c r="AD56" s="79"/>
-      <c r="AE56" s="79"/>
-      <c r="AF56" s="79"/>
-      <c r="AG56" s="80"/>
-    </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A57" s="34">
-        <v>5</v>
-      </c>
-      <c r="B57" s="18">
-        <v>50.5</v>
-      </c>
-      <c r="C57" s="19">
-        <v>930.88</v>
-      </c>
-      <c r="D57" s="9">
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="E57" s="9">
-        <v>3.12</v>
-      </c>
-      <c r="F57" s="10">
-        <v>582</v>
-      </c>
-      <c r="G57" s="11">
-        <v>0</v>
-      </c>
-      <c r="H57" s="12">
-        <v>300</v>
-      </c>
-      <c r="I57" s="13">
-        <v>625</v>
-      </c>
-      <c r="J57" s="11">
-        <v>0</v>
-      </c>
-      <c r="K57" s="14">
-        <v>300</v>
-      </c>
-      <c r="L57" s="15">
-        <v>4.5593899999999996</v>
-      </c>
-      <c r="M57" s="16">
-        <v>77.909599999999998</v>
-      </c>
-      <c r="N57" s="16">
-        <v>17.210999999999999</v>
-      </c>
-      <c r="O57" s="16">
-        <v>41</v>
-      </c>
-      <c r="P57" s="16">
-        <v>17.073170731707318</v>
-      </c>
-      <c r="Q57" s="16">
-        <v>34.146341463414636</v>
-      </c>
-      <c r="R57" s="16">
-        <v>48.780487804878049</v>
-      </c>
-      <c r="S57" s="16">
-        <v>9</v>
-      </c>
-      <c r="T57" s="16">
-        <v>4.0687899999999999</v>
-      </c>
-      <c r="U57" s="16">
-        <v>1150.17</v>
-      </c>
-      <c r="V57" s="16">
-        <v>55.339300000000001</v>
-      </c>
-      <c r="W57" s="17">
-        <v>43.847499999999997</v>
-      </c>
-      <c r="X57" s="15"/>
-      <c r="Y57" s="16"/>
-      <c r="Z57" s="11"/>
-      <c r="AA57" s="16"/>
-      <c r="AB57" s="16"/>
-      <c r="AC57" s="11"/>
-      <c r="AD57" s="16"/>
-      <c r="AE57" s="16"/>
-      <c r="AF57" s="16"/>
-      <c r="AG57" s="17"/>
-    </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AH57"/>
+    </row>
+    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A58" s="34">
         <v>5</v>
       </c>
       <c r="B58" s="7">
-        <v>45.2</v>
+        <v>58.5</v>
       </c>
       <c r="C58" s="8">
-        <v>735.61</v>
-      </c>
-      <c r="D58" s="9">
-        <v>4.25</v>
-      </c>
-      <c r="E58" s="9">
-        <v>1.76</v>
-      </c>
-      <c r="F58" s="10">
-        <v>651</v>
-      </c>
-      <c r="G58" s="11">
+        <v>1257.51</v>
+      </c>
+      <c r="D58" s="35">
+        <v>6.85</v>
+      </c>
+      <c r="E58" s="35">
+        <v>4.03</v>
+      </c>
+      <c r="F58" s="36">
+        <v>515</v>
+      </c>
+      <c r="G58" s="37">
+        <v>1</v>
+      </c>
+      <c r="H58" s="38">
+        <v>172</v>
+      </c>
+      <c r="I58" s="39">
+        <v>532</v>
+      </c>
+      <c r="J58" s="37">
+        <v>1</v>
+      </c>
+      <c r="K58" s="40">
+        <v>120</v>
+      </c>
+      <c r="L58" s="41"/>
+      <c r="M58" s="42"/>
+      <c r="N58" s="42"/>
+      <c r="O58" s="42"/>
+      <c r="P58" s="42"/>
+      <c r="Q58" s="42"/>
+      <c r="R58" s="42"/>
+      <c r="S58" s="42"/>
+      <c r="T58" s="42"/>
+      <c r="U58" s="42"/>
+      <c r="V58" s="42"/>
+      <c r="W58" s="20"/>
+      <c r="X58" s="41"/>
+      <c r="Y58" s="42"/>
+      <c r="Z58" s="37"/>
+      <c r="AA58" s="42"/>
+      <c r="AB58" s="42"/>
+      <c r="AC58" s="37"/>
+      <c r="AD58" s="42"/>
+      <c r="AE58" s="42"/>
+      <c r="AF58" s="42"/>
+      <c r="AG58" s="20"/>
+    </row>
+    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A59" s="34">
+        <v>5</v>
+      </c>
+      <c r="B59" s="18">
+        <v>50.5</v>
+      </c>
+      <c r="C59" s="19">
+        <v>930.88</v>
+      </c>
+      <c r="D59" s="9">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="E59" s="9">
+        <v>3.12</v>
+      </c>
+      <c r="F59" s="10">
+        <v>582</v>
+      </c>
+      <c r="G59" s="11">
         <v>0</v>
       </c>
-      <c r="H58" s="12">
+      <c r="H59" s="12">
         <v>300</v>
       </c>
-      <c r="I58" s="13">
-        <v>667</v>
-      </c>
-      <c r="J58" s="11">
-        <v>1</v>
-      </c>
-      <c r="K58" s="14">
-        <v>38</v>
-      </c>
-      <c r="L58" s="15">
-        <v>22.503699999999998</v>
-      </c>
-      <c r="M58" s="16">
-        <v>55.459299999999999</v>
-      </c>
-      <c r="N58" s="16">
-        <v>21.5305</v>
-      </c>
-      <c r="O58" s="16">
+      <c r="I59" s="13">
+        <v>625</v>
+      </c>
+      <c r="J59" s="11">
+        <v>0</v>
+      </c>
+      <c r="K59" s="14">
+        <v>300</v>
+      </c>
+      <c r="L59" s="15">
+        <v>4.5593899999999996</v>
+      </c>
+      <c r="M59" s="16">
+        <v>77.909599999999998</v>
+      </c>
+      <c r="N59" s="16">
+        <v>17.210999999999999</v>
+      </c>
+      <c r="O59" s="16">
         <v>41</v>
       </c>
-      <c r="P58" s="16">
-        <v>26.829268292682929</v>
-      </c>
-      <c r="Q58" s="16">
-        <v>24.390243902439025</v>
-      </c>
-      <c r="R58" s="16">
+      <c r="P59" s="16">
+        <v>17.073170731707318</v>
+      </c>
+      <c r="Q59" s="16">
+        <v>34.146341463414636</v>
+      </c>
+      <c r="R59" s="16">
         <v>48.780487804878049</v>
       </c>
-      <c r="S58" s="16">
-        <v>23</v>
-      </c>
-      <c r="T58" s="16">
-        <v>3.9328599999999998</v>
-      </c>
-      <c r="U58" s="16">
-        <v>1095.8499999999999</v>
-      </c>
-      <c r="V58" s="16">
-        <v>53.7928</v>
-      </c>
-      <c r="W58" s="17">
-        <v>45.020699999999998</v>
-      </c>
-      <c r="X58" s="15"/>
-      <c r="Y58" s="16"/>
-      <c r="Z58" s="11"/>
-      <c r="AA58" s="16"/>
-      <c r="AB58" s="16"/>
-      <c r="AC58" s="11"/>
-      <c r="AD58" s="16"/>
-      <c r="AE58" s="16"/>
-      <c r="AF58" s="16"/>
-      <c r="AG58" s="17"/>
-    </row>
-    <row r="59" spans="1:34" s="69" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="57">
-        <v>5</v>
-      </c>
-      <c r="B59" s="58">
-        <v>65.3</v>
-      </c>
-      <c r="C59" s="59">
-        <v>1220.58</v>
-      </c>
-      <c r="D59" s="60">
-        <v>6.8</v>
-      </c>
-      <c r="E59" s="60">
-        <v>4.8600000000000003</v>
-      </c>
-      <c r="F59" s="61">
-        <v>721</v>
-      </c>
-      <c r="G59" s="62">
-        <v>1</v>
-      </c>
-      <c r="H59" s="63">
-        <v>175</v>
-      </c>
-      <c r="I59" s="64">
-        <v>732</v>
-      </c>
-      <c r="J59" s="62">
-        <v>1</v>
-      </c>
-      <c r="K59" s="65">
-        <v>36</v>
-      </c>
-      <c r="L59" s="66">
-        <v>263.48</v>
-      </c>
-      <c r="M59" s="67">
-        <v>0</v>
-      </c>
-      <c r="N59" s="67">
-        <v>911.99699999999996</v>
-      </c>
-      <c r="O59" s="67">
-        <v>25.96</v>
-      </c>
-      <c r="P59" s="67">
-        <v>8.6286594761171038</v>
-      </c>
-      <c r="Q59" s="67">
-        <v>0</v>
-      </c>
-      <c r="R59" s="67">
-        <v>91.371340523882893</v>
-      </c>
-      <c r="S59" s="67">
-        <v>4</v>
-      </c>
-      <c r="T59" s="67">
-        <v>133.6</v>
-      </c>
-      <c r="U59" s="67">
-        <v>4.4059300000000003E-2</v>
-      </c>
-      <c r="V59" s="67">
-        <v>55.312600000000003</v>
-      </c>
-      <c r="W59" s="68">
-        <v>12.44</v>
-      </c>
-      <c r="X59" s="66"/>
-      <c r="Y59" s="67"/>
-      <c r="Z59" s="62"/>
-      <c r="AA59" s="67"/>
-      <c r="AB59" s="67"/>
-      <c r="AC59" s="62"/>
-      <c r="AD59" s="67"/>
-      <c r="AE59" s="67"/>
-      <c r="AF59" s="67"/>
-      <c r="AG59" s="68"/>
-    </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="S59" s="16">
+        <v>9</v>
+      </c>
+      <c r="T59" s="16">
+        <v>4.0687899999999999</v>
+      </c>
+      <c r="U59" s="16">
+        <v>1150.17</v>
+      </c>
+      <c r="V59" s="16">
+        <v>55.339300000000001</v>
+      </c>
+      <c r="W59" s="17">
+        <v>43.847499999999997</v>
+      </c>
+      <c r="X59" s="15"/>
+      <c r="Y59" s="16"/>
+      <c r="Z59" s="11"/>
+      <c r="AA59" s="16"/>
+      <c r="AB59" s="16"/>
+      <c r="AC59" s="11"/>
+      <c r="AD59" s="16"/>
+      <c r="AE59" s="16"/>
+      <c r="AF59" s="16"/>
+      <c r="AG59" s="17"/>
+    </row>
+    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A60" s="34">
         <v>5</v>
       </c>
       <c r="B60" s="7">
-        <v>53.9</v>
+        <v>45.2</v>
       </c>
       <c r="C60" s="8">
-        <v>949.16399999999999</v>
+        <v>735.61</v>
       </c>
       <c r="D60" s="9">
-        <v>3.06</v>
+        <v>4.25</v>
       </c>
       <c r="E60" s="9">
-        <v>2.69</v>
+        <v>1.76</v>
       </c>
       <c r="F60" s="10">
-        <v>789</v>
+        <v>651</v>
       </c>
       <c r="G60" s="11">
         <v>0</v>
@@ -6547,49 +6400,49 @@
         <v>300</v>
       </c>
       <c r="I60" s="13">
-        <v>796</v>
+        <v>667</v>
       </c>
       <c r="J60" s="11">
         <v>1</v>
       </c>
       <c r="K60" s="14">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="L60" s="15">
-        <v>28.116299999999999</v>
+        <v>22.503699999999998</v>
       </c>
       <c r="M60" s="16">
-        <v>56.899099999999997</v>
+        <v>55.459299999999999</v>
       </c>
       <c r="N60" s="16">
-        <v>14.398099999999999</v>
+        <v>21.5305</v>
       </c>
       <c r="O60" s="16">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P60" s="16">
-        <v>28.947368421052634</v>
+        <v>26.829268292682929</v>
       </c>
       <c r="Q60" s="16">
-        <v>18.421052631578945</v>
+        <v>24.390243902439025</v>
       </c>
       <c r="R60" s="16">
-        <v>52.631578947368418</v>
+        <v>48.780487804878049</v>
       </c>
       <c r="S60" s="16">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="T60" s="16">
-        <v>3.4329299999999998</v>
+        <v>3.9328599999999998</v>
       </c>
       <c r="U60" s="16">
-        <v>992.11800000000005</v>
+        <v>1095.8499999999999</v>
       </c>
       <c r="V60" s="16">
-        <v>46.393799999999999</v>
+        <v>53.7928</v>
       </c>
       <c r="W60" s="17">
-        <v>53.086300000000001</v>
+        <v>45.020699999999998</v>
       </c>
       <c r="X60" s="15"/>
       <c r="Y60" s="16"/>
@@ -6602,24 +6455,24 @@
       <c r="AF60" s="16"/>
       <c r="AG60" s="17"/>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A61" s="34">
         <v>5</v>
       </c>
       <c r="B61" s="7">
-        <v>63</v>
+        <v>53.9</v>
       </c>
       <c r="C61" s="8">
-        <v>1541.28</v>
+        <v>949.16399999999999</v>
       </c>
       <c r="D61" s="9">
-        <v>8.6999999999999993</v>
+        <v>3.06</v>
       </c>
       <c r="E61" s="9">
-        <v>6.4</v>
-      </c>
-      <c r="F61" s="51">
-        <v>526</v>
+        <v>2.69</v>
+      </c>
+      <c r="F61" s="10">
+        <v>789</v>
       </c>
       <c r="G61" s="11">
         <v>0</v>
@@ -6628,108 +6481,88 @@
         <v>300</v>
       </c>
       <c r="I61" s="13">
-        <v>522</v>
+        <v>796</v>
       </c>
       <c r="J61" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61" s="14">
-        <v>300</v>
+        <v>48</v>
       </c>
       <c r="L61" s="15">
-        <v>1.58646</v>
+        <v>28.116299999999999</v>
       </c>
       <c r="M61" s="16">
-        <v>85.988500000000002</v>
+        <v>56.899099999999997</v>
       </c>
       <c r="N61" s="16">
-        <v>11.9717</v>
+        <v>14.398099999999999</v>
       </c>
       <c r="O61" s="16">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="P61" s="16">
-        <v>13.043478260869565</v>
+        <v>28.947368421052634</v>
       </c>
       <c r="Q61" s="16">
-        <v>39.130434782608695</v>
+        <v>18.421052631578945</v>
       </c>
       <c r="R61" s="16">
-        <v>47.826086956521742</v>
+        <v>52.631578947368418</v>
       </c>
       <c r="S61" s="16">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="T61" s="16">
-        <v>2.0467900000000001</v>
+        <v>3.4329299999999998</v>
       </c>
       <c r="U61" s="16">
-        <v>609.45299999999997</v>
+        <v>992.11800000000005</v>
       </c>
       <c r="V61" s="16">
-        <v>29.449400000000001</v>
+        <v>46.393799999999999</v>
       </c>
       <c r="W61" s="17">
-        <v>70.390600000000006</v>
-      </c>
-      <c r="X61" s="15">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="Y61" s="16">
-        <v>96.666666666666671</v>
-      </c>
-      <c r="Z61" s="11">
-        <v>86</v>
-      </c>
-      <c r="AA61" s="16">
-        <v>12.790697674418606</v>
-      </c>
-      <c r="AB61" s="16">
-        <v>87.20930232558139</v>
-      </c>
-      <c r="AC61" s="11">
-        <v>4</v>
-      </c>
-      <c r="AD61" s="16">
-        <v>4.5832499999999996</v>
-      </c>
-      <c r="AE61" s="16">
-        <v>1368.19</v>
-      </c>
-      <c r="AF61" s="16">
-        <v>46.828682067031643</v>
-      </c>
-      <c r="AG61" s="17">
-        <v>53.171317932968357</v>
-      </c>
-    </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
+        <v>53.086300000000001</v>
+      </c>
+      <c r="X61" s="15"/>
+      <c r="Y61" s="16"/>
+      <c r="Z61" s="11"/>
+      <c r="AA61" s="16"/>
+      <c r="AB61" s="16"/>
+      <c r="AC61" s="11"/>
+      <c r="AD61" s="16"/>
+      <c r="AE61" s="16"/>
+      <c r="AF61" s="16"/>
+      <c r="AG61" s="17"/>
+    </row>
+    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A62" s="34">
         <v>5</v>
       </c>
       <c r="B62" s="7">
-        <v>44.3</v>
+        <v>63</v>
       </c>
       <c r="C62" s="8">
-        <v>3283.24</v>
+        <v>1541.28</v>
       </c>
       <c r="D62" s="9">
-        <v>2</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="E62" s="9">
-        <v>3.02</v>
-      </c>
-      <c r="F62" s="10">
-        <v>596</v>
+        <v>6.4</v>
+      </c>
+      <c r="F62" s="52">
+        <v>526</v>
       </c>
       <c r="G62" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" s="12">
-        <v>55</v>
+        <v>300</v>
       </c>
       <c r="I62" s="13">
-        <v>592</v>
+        <v>522</v>
       </c>
       <c r="J62" s="11">
         <v>0</v>
@@ -6738,99 +6571,99 @@
         <v>300</v>
       </c>
       <c r="L62" s="15">
-        <v>19.943999999999999</v>
+        <v>1.58646</v>
       </c>
       <c r="M62" s="16">
-        <v>65.298000000000002</v>
+        <v>85.988500000000002</v>
       </c>
       <c r="N62" s="16">
-        <v>14.238099999999999</v>
+        <v>11.9717</v>
       </c>
       <c r="O62" s="16">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="P62" s="16">
-        <v>24.242424242424242</v>
+        <v>13.043478260869565</v>
       </c>
       <c r="Q62" s="16">
-        <v>30.303030303030305</v>
+        <v>39.130434782608695</v>
       </c>
       <c r="R62" s="16">
-        <v>45.454545454545453</v>
+        <v>47.826086956521742</v>
       </c>
       <c r="S62" s="16">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T62" s="16">
-        <v>3.6577000000000002</v>
+        <v>2.0467900000000001</v>
       </c>
       <c r="U62" s="16">
-        <v>1073.9000000000001</v>
+        <v>609.45299999999997</v>
       </c>
       <c r="V62" s="16">
-        <v>42.247700000000002</v>
+        <v>29.449400000000001</v>
       </c>
       <c r="W62" s="17">
-        <v>57.472299999999997</v>
+        <v>70.390600000000006</v>
       </c>
       <c r="X62" s="15">
-        <v>82.960000000000008</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="Y62" s="16">
-        <v>72.359999999999985</v>
+        <v>96.666666666666671</v>
       </c>
       <c r="Z62" s="11">
-        <v>151</v>
+        <v>86</v>
       </c>
       <c r="AA62" s="16">
-        <v>24.503311258278146</v>
+        <v>12.790697674418606</v>
       </c>
       <c r="AB62" s="16">
-        <v>75.496688741721854</v>
+        <v>87.20930232558139</v>
       </c>
       <c r="AC62" s="11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AD62" s="16">
-        <v>6.3631099999999998</v>
+        <v>4.5832499999999996</v>
       </c>
       <c r="AE62" s="16">
-        <v>1907.41</v>
+        <v>1368.19</v>
       </c>
       <c r="AF62" s="16">
-        <v>61.13333333333334</v>
+        <v>46.828682067031643</v>
       </c>
       <c r="AG62" s="17">
-        <v>38.866666666666667</v>
-      </c>
-    </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
+        <v>53.171317932968357</v>
+      </c>
+    </row>
+    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A63" s="34">
         <v>5</v>
       </c>
-      <c r="B63" s="18">
-        <v>55.8</v>
-      </c>
-      <c r="C63" s="19">
-        <v>775.15</v>
+      <c r="B63" s="7">
+        <v>44.3</v>
+      </c>
+      <c r="C63" s="8">
+        <v>3283.24</v>
       </c>
       <c r="D63" s="9">
-        <v>7.7</v>
+        <v>2</v>
       </c>
       <c r="E63" s="9">
-        <v>5.3</v>
+        <v>3.02</v>
       </c>
       <c r="F63" s="10">
-        <v>661</v>
+        <v>596</v>
       </c>
       <c r="G63" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" s="12">
-        <v>300</v>
+        <v>55</v>
       </c>
       <c r="I63" s="13">
-        <v>661</v>
+        <v>592</v>
       </c>
       <c r="J63" s="11">
         <v>0</v>
@@ -6839,90 +6672,90 @@
         <v>300</v>
       </c>
       <c r="L63" s="15">
-        <v>11.5985</v>
+        <v>19.943999999999999</v>
       </c>
       <c r="M63" s="16">
-        <v>76.096500000000006</v>
+        <v>65.298000000000002</v>
       </c>
       <c r="N63" s="16">
-        <v>12.118399999999999</v>
+        <v>14.238099999999999</v>
       </c>
       <c r="O63" s="16">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="P63" s="16">
-        <v>11.76470588235294</v>
+        <v>24.242424242424242</v>
       </c>
       <c r="Q63" s="16">
-        <v>41.17647058823529</v>
+        <v>30.303030303030305</v>
       </c>
       <c r="R63" s="16">
-        <v>47.058823529411761</v>
+        <v>45.454545454545453</v>
       </c>
       <c r="S63" s="16">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T63" s="16">
-        <v>3.3074499999999998</v>
+        <v>3.6577000000000002</v>
       </c>
       <c r="U63" s="16">
-        <v>952.01499999999999</v>
+        <v>1073.9000000000001</v>
       </c>
       <c r="V63" s="16">
-        <v>44.327399999999997</v>
+        <v>42.247700000000002</v>
       </c>
       <c r="W63" s="17">
-        <v>54.899299999999997</v>
+        <v>57.472299999999997</v>
       </c>
       <c r="X63" s="15">
-        <v>14.679999999999998</v>
+        <v>82.960000000000008</v>
       </c>
       <c r="Y63" s="16">
-        <v>95.119999999999976</v>
+        <v>72.359999999999985</v>
       </c>
       <c r="Z63" s="11">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="AA63" s="16">
-        <v>21.495327102803738</v>
+        <v>24.503311258278146</v>
       </c>
       <c r="AB63" s="16">
-        <v>78.504672897196258</v>
+        <v>75.496688741721854</v>
       </c>
       <c r="AC63" s="11">
         <v>7</v>
       </c>
       <c r="AD63" s="16">
-        <v>4.9111099999999999</v>
+        <v>6.3631099999999998</v>
       </c>
       <c r="AE63" s="16">
-        <v>1471.76</v>
+        <v>1907.41</v>
       </c>
       <c r="AF63" s="16">
-        <v>48.233097746366177</v>
+        <v>61.13333333333334</v>
       </c>
       <c r="AG63" s="17">
-        <v>51.766902253633816</v>
-      </c>
-    </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
+        <v>38.866666666666667</v>
+      </c>
+    </row>
+    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A64" s="34">
         <v>5</v>
       </c>
-      <c r="B64" s="7">
-        <v>42.1</v>
-      </c>
-      <c r="C64" s="8">
-        <v>2342.87</v>
+      <c r="B64" s="18">
+        <v>55.8</v>
+      </c>
+      <c r="C64" s="19">
+        <v>775.15</v>
       </c>
       <c r="D64" s="9">
-        <v>4.66</v>
+        <v>7.7</v>
       </c>
       <c r="E64" s="9">
-        <v>3.02</v>
+        <v>5.3</v>
       </c>
       <c r="F64" s="10">
-        <v>494</v>
+        <v>661</v>
       </c>
       <c r="G64" s="11">
         <v>0</v>
@@ -6931,7 +6764,7 @@
         <v>300</v>
       </c>
       <c r="I64" s="13">
-        <v>500</v>
+        <v>661</v>
       </c>
       <c r="J64" s="11">
         <v>0</v>
@@ -6940,99 +6773,99 @@
         <v>300</v>
       </c>
       <c r="L64" s="15">
-        <v>12.9983</v>
+        <v>11.5985</v>
       </c>
       <c r="M64" s="16">
-        <v>73.630200000000002</v>
+        <v>76.096500000000006</v>
       </c>
       <c r="N64" s="16">
-        <v>12.5717</v>
+        <v>12.118399999999999</v>
       </c>
       <c r="O64" s="16">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P64" s="16">
-        <v>15.09433962264151</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="Q64" s="16">
-        <v>33.962264150943398</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="R64" s="16">
-        <v>50.943396226415096</v>
+        <v>47.058823529411761</v>
       </c>
       <c r="S64" s="16">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="T64" s="16">
-        <v>5.4095500000000003</v>
+        <v>3.3074499999999998</v>
       </c>
       <c r="U64" s="16">
-        <v>1575.26</v>
+        <v>952.01499999999999</v>
       </c>
       <c r="V64" s="16">
-        <v>66.084500000000006</v>
+        <v>44.327399999999997</v>
       </c>
       <c r="W64" s="17">
-        <v>33.488900000000001</v>
+        <v>54.899299999999997</v>
       </c>
       <c r="X64" s="15">
-        <v>28.240000000000002</v>
+        <v>14.679999999999998</v>
       </c>
       <c r="Y64" s="16">
-        <v>90.533333333333346</v>
+        <v>95.119999999999976</v>
       </c>
       <c r="Z64" s="11">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="AA64" s="16">
-        <v>11.038961038961039</v>
+        <v>21.495327102803738</v>
       </c>
       <c r="AB64" s="16">
-        <v>88.961038961038966</v>
+        <v>78.504672897196258</v>
       </c>
       <c r="AC64" s="11">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AD64" s="16">
-        <v>7.3916399999999998</v>
+        <v>4.9111099999999999</v>
       </c>
       <c r="AE64" s="16">
-        <v>2210.1</v>
+        <v>1471.76</v>
       </c>
       <c r="AF64" s="16">
-        <v>70.141484249866508</v>
-      </c>
-      <c r="AG64" s="20">
-        <v>29.858515750133474</v>
-      </c>
-    </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.2">
+        <v>48.233097746366177</v>
+      </c>
+      <c r="AG64" s="17">
+        <v>51.766902253633816</v>
+      </c>
+    </row>
+    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A65" s="34">
         <v>5</v>
       </c>
-      <c r="B65" s="18">
-        <v>44</v>
-      </c>
-      <c r="C65" s="19">
-        <v>496.77800000000002</v>
+      <c r="B65" s="7">
+        <v>42.1</v>
+      </c>
+      <c r="C65" s="8">
+        <v>2342.87</v>
       </c>
       <c r="D65" s="9">
-        <v>4.2699999999999996</v>
+        <v>4.66</v>
       </c>
       <c r="E65" s="9">
-        <v>3.61</v>
+        <v>3.02</v>
       </c>
       <c r="F65" s="10">
-        <v>564</v>
+        <v>494</v>
       </c>
       <c r="G65" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" s="12">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="I65" s="13">
-        <v>570</v>
+        <v>500</v>
       </c>
       <c r="J65" s="11">
         <v>0</v>
@@ -7041,191 +6874,191 @@
         <v>300</v>
       </c>
       <c r="L65" s="15">
-        <v>20.5306</v>
+        <v>12.9983</v>
       </c>
       <c r="M65" s="16">
-        <v>53.512900000000002</v>
+        <v>73.630200000000002</v>
       </c>
       <c r="N65" s="16">
-        <v>25.636600000000001</v>
+        <v>12.5717</v>
       </c>
       <c r="O65" s="16">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="P65" s="16">
-        <v>12.195121951219512</v>
+        <v>15.09433962264151</v>
       </c>
       <c r="Q65" s="16">
-        <v>36.585365853658537</v>
+        <v>33.962264150943398</v>
       </c>
       <c r="R65" s="16">
-        <v>51.219512195121951</v>
+        <v>50.943396226415096</v>
       </c>
       <c r="S65" s="16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T65" s="16">
-        <v>3.50088</v>
+        <v>5.4095500000000003</v>
       </c>
       <c r="U65" s="16">
-        <v>996.76900000000001</v>
+        <v>1575.26</v>
       </c>
       <c r="V65" s="16">
-        <v>48.233600000000003</v>
+        <v>66.084500000000006</v>
       </c>
       <c r="W65" s="17">
-        <v>51.0199</v>
+        <v>33.488900000000001</v>
       </c>
       <c r="X65" s="15">
-        <v>14.84</v>
+        <v>28.240000000000002</v>
       </c>
       <c r="Y65" s="16">
-        <v>95.053333333333342</v>
+        <v>90.533333333333346</v>
       </c>
       <c r="Z65" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA65" s="16">
-        <v>13.548387096774196</v>
+        <v>11.038961038961039</v>
       </c>
       <c r="AB65" s="16">
-        <v>86.451612903225808</v>
+        <v>88.961038961038966</v>
       </c>
       <c r="AC65" s="11">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AD65" s="16">
-        <v>7.0525500000000001</v>
+        <v>7.3916399999999998</v>
       </c>
       <c r="AE65" s="16">
-        <v>2113.23</v>
+        <v>2210.1</v>
       </c>
       <c r="AF65" s="16">
-        <v>68.138170178714333</v>
-      </c>
-      <c r="AG65" s="17">
-        <v>31.861829821285674</v>
-      </c>
-    </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.2">
+        <v>70.141484249866508</v>
+      </c>
+      <c r="AG65" s="20">
+        <v>29.858515750133474</v>
+      </c>
+    </row>
+    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A66" s="34">
         <v>5</v>
       </c>
-      <c r="B66" s="7">
-        <v>64.7</v>
-      </c>
-      <c r="C66" s="8">
-        <v>2672.09</v>
+      <c r="B66" s="18">
+        <v>44</v>
+      </c>
+      <c r="C66" s="19">
+        <v>496.77800000000002</v>
       </c>
       <c r="D66" s="9">
-        <v>9.48</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="E66" s="9">
-        <v>5.32</v>
+        <v>3.61</v>
       </c>
       <c r="F66" s="10">
-        <v>633</v>
+        <v>564</v>
       </c>
       <c r="G66" s="11">
+        <v>1</v>
+      </c>
+      <c r="H66" s="12">
+        <v>290</v>
+      </c>
+      <c r="I66" s="13">
+        <v>570</v>
+      </c>
+      <c r="J66" s="11">
         <v>0</v>
       </c>
-      <c r="H66" s="12">
+      <c r="K66" s="14">
         <v>300</v>
       </c>
-      <c r="I66" s="13">
-        <v>639</v>
-      </c>
-      <c r="J66" s="11">
-        <v>1</v>
-      </c>
-      <c r="K66" s="14">
-        <v>48</v>
-      </c>
       <c r="L66" s="15">
-        <v>15.4513</v>
+        <v>20.5306</v>
       </c>
       <c r="M66" s="16">
-        <v>61.445099999999996</v>
+        <v>53.512900000000002</v>
       </c>
       <c r="N66" s="16">
-        <v>22.876899999999999</v>
+        <v>25.636600000000001</v>
       </c>
       <c r="O66" s="16">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="P66" s="16">
-        <v>18</v>
+        <v>12.195121951219512</v>
       </c>
       <c r="Q66" s="16">
-        <v>32</v>
+        <v>36.585365853658537</v>
       </c>
       <c r="R66" s="16">
-        <v>50</v>
+        <v>51.219512195121951</v>
       </c>
       <c r="S66" s="16">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="T66" s="16">
-        <v>5.5391700000000004</v>
+        <v>3.50088</v>
       </c>
       <c r="U66" s="16">
-        <v>1586.86</v>
+        <v>996.76900000000001</v>
       </c>
       <c r="V66" s="16">
-        <v>61.845100000000002</v>
+        <v>48.233600000000003</v>
       </c>
       <c r="W66" s="17">
-        <v>37.4617</v>
+        <v>51.0199</v>
       </c>
       <c r="X66" s="15">
-        <v>17.239999999999998</v>
+        <v>14.84</v>
       </c>
       <c r="Y66" s="16">
-        <v>94.159999999999982</v>
+        <v>95.053333333333342</v>
       </c>
       <c r="Z66" s="11">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="AA66" s="16">
-        <v>17.283950617283949</v>
+        <v>13.548387096774196</v>
       </c>
       <c r="AB66" s="16">
-        <v>82.716049382716051</v>
+        <v>86.451612903225808</v>
       </c>
       <c r="AC66" s="11">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AD66" s="16">
-        <v>7.6229100000000001</v>
+        <v>7.0525500000000001</v>
       </c>
       <c r="AE66" s="16">
-        <v>2272.2399999999998</v>
+        <v>2113.23</v>
       </c>
       <c r="AF66" s="16">
-        <v>67.339032861341167</v>
+        <v>68.138170178714333</v>
       </c>
       <c r="AG66" s="17">
-        <v>32.660967138658833</v>
-      </c>
-    </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.2">
+        <v>31.861829821285674</v>
+      </c>
+    </row>
+    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A67" s="34">
         <v>5</v>
       </c>
-      <c r="B67" s="18">
-        <v>49.77</v>
-      </c>
-      <c r="C67" s="19">
-        <v>872.24099999999999</v>
+      <c r="B67" s="7">
+        <v>64.7</v>
+      </c>
+      <c r="C67" s="8">
+        <v>2672.09</v>
       </c>
       <c r="D67" s="9">
-        <v>5.0599999999999996</v>
+        <v>9.48</v>
       </c>
       <c r="E67" s="9">
-        <v>3.92</v>
+        <v>5.32</v>
       </c>
       <c r="F67" s="10">
-        <v>701</v>
+        <v>633</v>
       </c>
       <c r="G67" s="11">
         <v>0</v>
@@ -7234,413 +7067,433 @@
         <v>300</v>
       </c>
       <c r="I67" s="13">
+        <v>639</v>
+      </c>
+      <c r="J67" s="11">
+        <v>1</v>
+      </c>
+      <c r="K67" s="14">
+        <v>48</v>
+      </c>
+      <c r="L67" s="15">
+        <v>15.4513</v>
+      </c>
+      <c r="M67" s="16">
+        <v>61.445099999999996</v>
+      </c>
+      <c r="N67" s="16">
+        <v>22.876899999999999</v>
+      </c>
+      <c r="O67" s="16">
+        <v>50</v>
+      </c>
+      <c r="P67" s="16">
+        <v>18</v>
+      </c>
+      <c r="Q67" s="16">
+        <v>32</v>
+      </c>
+      <c r="R67" s="16">
+        <v>50</v>
+      </c>
+      <c r="S67" s="16">
+        <v>28</v>
+      </c>
+      <c r="T67" s="16">
+        <v>5.5391700000000004</v>
+      </c>
+      <c r="U67" s="16">
+        <v>1586.86</v>
+      </c>
+      <c r="V67" s="16">
+        <v>61.845100000000002</v>
+      </c>
+      <c r="W67" s="17">
+        <v>37.4617</v>
+      </c>
+      <c r="X67" s="15">
+        <v>17.239999999999998</v>
+      </c>
+      <c r="Y67" s="16">
+        <v>94.159999999999982</v>
+      </c>
+      <c r="Z67" s="11">
+        <v>162</v>
+      </c>
+      <c r="AA67" s="16">
+        <v>17.283950617283949</v>
+      </c>
+      <c r="AB67" s="16">
+        <v>82.716049382716051</v>
+      </c>
+      <c r="AC67" s="11">
+        <v>23</v>
+      </c>
+      <c r="AD67" s="16">
+        <v>7.6229100000000001</v>
+      </c>
+      <c r="AE67" s="16">
+        <v>2272.2399999999998</v>
+      </c>
+      <c r="AF67" s="16">
+        <v>67.339032861341167</v>
+      </c>
+      <c r="AG67" s="17">
+        <v>32.660967138658833</v>
+      </c>
+    </row>
+    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A68" s="34">
+        <v>5</v>
+      </c>
+      <c r="B68" s="18">
+        <v>49.77</v>
+      </c>
+      <c r="C68" s="19">
+        <v>872.24099999999999</v>
+      </c>
+      <c r="D68" s="9">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="E68" s="9">
+        <v>3.92</v>
+      </c>
+      <c r="F68" s="10">
+        <v>701</v>
+      </c>
+      <c r="G68" s="11">
+        <v>0</v>
+      </c>
+      <c r="H68" s="12">
+        <v>300</v>
+      </c>
+      <c r="I68" s="13">
         <v>703</v>
       </c>
-      <c r="J67" s="11">
-        <v>1</v>
-      </c>
-      <c r="K67" s="14">
+      <c r="J68" s="11">
+        <v>1</v>
+      </c>
+      <c r="K68" s="14">
         <v>176</v>
       </c>
-      <c r="L67" s="15">
+      <c r="L68" s="15">
         <v>6.8390899999999997</v>
       </c>
-      <c r="M67" s="16">
+      <c r="M68" s="16">
         <v>78.176199999999994</v>
       </c>
-      <c r="N67" s="16">
+      <c r="N68" s="16">
         <v>14.651400000000001</v>
       </c>
-      <c r="O67" s="16">
+      <c r="O68" s="16">
         <v>26</v>
       </c>
-      <c r="P67" s="16">
+      <c r="P68" s="16">
         <v>7.6923076923076925</v>
       </c>
-      <c r="Q67" s="16">
+      <c r="Q68" s="16">
         <v>38.461538461538467</v>
       </c>
-      <c r="R67" s="16">
+      <c r="R68" s="16">
         <v>53.846153846153847</v>
       </c>
-      <c r="S67" s="16">
+      <c r="S68" s="16">
         <v>12</v>
       </c>
-      <c r="T67" s="16">
+      <c r="T68" s="16">
         <v>3.04955</v>
       </c>
-      <c r="U67" s="16">
+      <c r="U68" s="16">
         <v>871.80600000000004</v>
       </c>
-      <c r="V67" s="16">
+      <c r="V68" s="16">
         <v>44.327399999999997</v>
       </c>
-      <c r="W67" s="17">
+      <c r="W68" s="17">
         <v>54.752699999999997</v>
       </c>
-      <c r="X67" s="15">
+      <c r="X68" s="15">
         <v>13.92</v>
       </c>
-      <c r="Y67" s="16">
+      <c r="Y68" s="16">
         <v>95.093333333333334</v>
       </c>
-      <c r="Z67" s="11">
+      <c r="Z68" s="11">
         <v>127</v>
       </c>
-      <c r="AA67" s="16">
+      <c r="AA68" s="16">
         <v>15.748031496062993</v>
       </c>
-      <c r="AB67" s="16">
+      <c r="AB68" s="16">
         <v>84.251968503937007</v>
       </c>
-      <c r="AC67" s="11">
+      <c r="AC68" s="11">
         <v>11</v>
       </c>
-      <c r="AD67" s="16">
+      <c r="AD68" s="16">
         <v>5.5167700000000002</v>
       </c>
-      <c r="AE67" s="16">
+      <c r="AE68" s="16">
         <v>1644.22</v>
       </c>
-      <c r="AF67" s="16">
+      <c r="AF68" s="16">
         <v>57.024351083757033</v>
       </c>
-      <c r="AG67" s="17">
+      <c r="AG68" s="17">
         <v>42.975648916242974</v>
       </c>
     </row>
-    <row r="68" spans="1:33" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="43">
+    <row r="69" spans="1:33" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="43">
         <v>5</v>
       </c>
-      <c r="B68" s="22">
+      <c r="B69" s="22">
         <v>53.8</v>
       </c>
-      <c r="C68" s="52">
+      <c r="C69" s="53">
         <v>1026.7</v>
       </c>
-      <c r="D68" s="24">
+      <c r="D69" s="24">
         <v>5.96</v>
       </c>
-      <c r="E68" s="24">
+      <c r="E69" s="24">
         <v>5.84</v>
       </c>
-      <c r="F68" s="25">
+      <c r="F69" s="25">
         <v>771</v>
       </c>
-      <c r="G68" s="26">
+      <c r="G69" s="26">
         <v>0</v>
       </c>
-      <c r="H68" s="27">
+      <c r="H69" s="27">
         <v>300</v>
       </c>
-      <c r="I68" s="28">
+      <c r="I69" s="28">
         <v>771</v>
       </c>
-      <c r="J68" s="26">
-        <v>1</v>
-      </c>
-      <c r="K68" s="29">
+      <c r="J69" s="26">
+        <v>1</v>
+      </c>
+      <c r="K69" s="29">
         <v>217</v>
       </c>
-      <c r="L68" s="30">
+      <c r="L69" s="30">
         <v>27.382999999999999</v>
       </c>
-      <c r="M68" s="31">
+      <c r="M69" s="31">
         <v>58.312199999999997</v>
       </c>
-      <c r="N68" s="31">
+      <c r="N69" s="31">
         <v>13.918100000000001</v>
       </c>
-      <c r="O68" s="31">
+      <c r="O69" s="31">
         <v>54</v>
       </c>
-      <c r="P68" s="31">
+      <c r="P69" s="31">
         <v>25.925925925925924</v>
       </c>
-      <c r="Q68" s="31">
+      <c r="Q69" s="31">
         <v>20.37037037037037</v>
       </c>
-      <c r="R68" s="31">
+      <c r="R69" s="31">
         <v>53.703703703703709</v>
       </c>
-      <c r="S68" s="31">
+      <c r="S69" s="31">
         <v>34</v>
       </c>
-      <c r="T68" s="31">
+      <c r="T69" s="31">
         <v>5.3851500000000003</v>
       </c>
-      <c r="U68" s="31">
+      <c r="U69" s="31">
         <v>1556.09</v>
       </c>
-      <c r="V68" s="31">
+      <c r="V69" s="31">
         <v>63.191600000000001</v>
       </c>
-      <c r="W68" s="32">
+      <c r="W69" s="32">
         <v>36.328499999999998</v>
       </c>
-      <c r="X68" s="30">
+      <c r="X69" s="30">
         <v>59.68</v>
       </c>
-      <c r="Y68" s="31">
+      <c r="Y69" s="31">
         <v>80.013333333333321</v>
       </c>
-      <c r="Z68" s="26">
+      <c r="Z69" s="26">
         <v>147</v>
       </c>
-      <c r="AA68" s="31">
+      <c r="AA69" s="31">
         <v>10.204081632653061</v>
       </c>
-      <c r="AB68" s="31">
+      <c r="AB69" s="31">
         <v>89.795918367346943</v>
       </c>
-      <c r="AC68" s="26">
+      <c r="AC69" s="26">
         <v>29</v>
       </c>
-      <c r="AD68" s="31">
+      <c r="AD69" s="31">
         <v>7.3907600000000002</v>
       </c>
-      <c r="AE68" s="31">
+      <c r="AE69" s="31">
         <v>2205.9899999999998</v>
       </c>
-      <c r="AF68" s="31">
+      <c r="AF69" s="31">
         <v>67.659631311781993</v>
       </c>
-      <c r="AG68" s="32">
+      <c r="AG69" s="32">
         <v>32.340368688218007</v>
       </c>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A69" s="34">
-        <v>6</v>
-      </c>
-      <c r="B69" s="7">
-        <v>29.91</v>
-      </c>
-      <c r="C69" s="8">
-        <v>531.94500000000005</v>
-      </c>
-      <c r="D69" s="35">
-        <v>0.8</v>
-      </c>
-      <c r="E69" s="35">
-        <v>0.24</v>
-      </c>
-      <c r="F69" s="36">
-        <v>489</v>
-      </c>
-      <c r="G69" s="37">
-        <v>0</v>
-      </c>
-      <c r="H69" s="38">
-        <v>300</v>
-      </c>
-      <c r="I69" s="39">
-        <v>500</v>
-      </c>
-      <c r="J69" s="37">
-        <v>1</v>
-      </c>
-      <c r="K69" s="40">
-        <v>21</v>
-      </c>
-      <c r="L69" s="41">
-        <v>51.486499999999999</v>
-      </c>
-      <c r="M69" s="42">
-        <v>26.476500000000001</v>
-      </c>
-      <c r="N69" s="42">
-        <v>21.330500000000001</v>
-      </c>
-      <c r="O69" s="42">
-        <v>48</v>
-      </c>
-      <c r="P69" s="42">
-        <v>29.166666666666668</v>
-      </c>
-      <c r="Q69" s="42">
-        <v>18.75</v>
-      </c>
-      <c r="R69" s="42">
-        <v>52.083333333333336</v>
-      </c>
-      <c r="S69" s="42">
-        <v>31</v>
-      </c>
-      <c r="T69" s="42">
-        <v>4.25474</v>
-      </c>
-      <c r="U69" s="42">
-        <v>1219.92</v>
-      </c>
-      <c r="V69" s="42">
-        <v>56.672400000000003</v>
-      </c>
-      <c r="W69" s="20">
-        <v>42.741</v>
-      </c>
-      <c r="X69" s="41"/>
-      <c r="Y69" s="42"/>
-      <c r="Z69" s="37"/>
-      <c r="AA69" s="42"/>
-      <c r="AB69" s="42"/>
-      <c r="AC69" s="37"/>
-      <c r="AD69" s="42"/>
-      <c r="AE69" s="42"/>
-      <c r="AF69" s="42"/>
-      <c r="AG69" s="20"/>
-    </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A70" s="34">
         <v>6</v>
       </c>
       <c r="B70" s="7">
-        <v>28.3</v>
+        <v>29.91</v>
       </c>
       <c r="C70" s="8">
-        <v>247.285</v>
-      </c>
-      <c r="D70" s="9">
-        <v>0.63</v>
-      </c>
-      <c r="E70" s="9">
-        <v>1.2E-2</v>
-      </c>
-      <c r="F70" s="10">
-        <v>558</v>
-      </c>
-      <c r="G70" s="11">
-        <v>1</v>
-      </c>
-      <c r="H70" s="12">
-        <v>11</v>
-      </c>
-      <c r="I70" s="13">
-        <v>566</v>
-      </c>
-      <c r="J70" s="11">
-        <v>1</v>
-      </c>
-      <c r="K70" s="14">
-        <v>32</v>
-      </c>
-      <c r="L70" s="15">
-        <v>28.769500000000001</v>
-      </c>
-      <c r="M70" s="16">
-        <v>59.085500000000003</v>
-      </c>
-      <c r="N70" s="16">
-        <v>11.1052</v>
-      </c>
-      <c r="O70" s="16">
-        <v>63</v>
-      </c>
-      <c r="P70" s="16">
-        <v>23.809523809523807</v>
-      </c>
-      <c r="Q70" s="16">
-        <v>25.396825396825395</v>
-      </c>
-      <c r="R70" s="16">
-        <v>50.793650793650791</v>
-      </c>
-      <c r="S70" s="16">
-        <v>24</v>
-      </c>
-      <c r="T70" s="16">
-        <v>5.7953400000000004</v>
-      </c>
-      <c r="U70" s="16">
-        <v>1641.01</v>
-      </c>
-      <c r="V70" s="16">
-        <v>65.724599999999995</v>
-      </c>
-      <c r="W70" s="17">
-        <v>33.408900000000003</v>
-      </c>
-      <c r="X70" s="15"/>
-      <c r="Y70" s="16"/>
-      <c r="Z70" s="11"/>
-      <c r="AA70" s="16"/>
-      <c r="AB70" s="16"/>
-      <c r="AC70" s="11"/>
-      <c r="AD70" s="16"/>
-      <c r="AE70" s="16"/>
-      <c r="AF70" s="16"/>
-      <c r="AG70" s="17"/>
-    </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.2">
+        <v>531.94500000000005</v>
+      </c>
+      <c r="D70" s="35">
+        <v>0.8</v>
+      </c>
+      <c r="E70" s="35">
+        <v>0.24</v>
+      </c>
+      <c r="F70" s="36">
+        <v>489</v>
+      </c>
+      <c r="G70" s="37">
+        <v>0</v>
+      </c>
+      <c r="H70" s="38">
+        <v>300</v>
+      </c>
+      <c r="I70" s="39">
+        <v>500</v>
+      </c>
+      <c r="J70" s="37">
+        <v>1</v>
+      </c>
+      <c r="K70" s="40">
+        <v>21</v>
+      </c>
+      <c r="L70" s="41">
+        <v>51.486499999999999</v>
+      </c>
+      <c r="M70" s="42">
+        <v>26.476500000000001</v>
+      </c>
+      <c r="N70" s="42">
+        <v>21.330500000000001</v>
+      </c>
+      <c r="O70" s="42">
+        <v>48</v>
+      </c>
+      <c r="P70" s="42">
+        <v>29.166666666666668</v>
+      </c>
+      <c r="Q70" s="42">
+        <v>18.75</v>
+      </c>
+      <c r="R70" s="42">
+        <v>52.083333333333336</v>
+      </c>
+      <c r="S70" s="42">
+        <v>31</v>
+      </c>
+      <c r="T70" s="42">
+        <v>4.25474</v>
+      </c>
+      <c r="U70" s="42">
+        <v>1219.92</v>
+      </c>
+      <c r="V70" s="42">
+        <v>56.672400000000003</v>
+      </c>
+      <c r="W70" s="20">
+        <v>42.741</v>
+      </c>
+      <c r="X70" s="41"/>
+      <c r="Y70" s="42"/>
+      <c r="Z70" s="37"/>
+      <c r="AA70" s="42"/>
+      <c r="AB70" s="42"/>
+      <c r="AC70" s="37"/>
+      <c r="AD70" s="42"/>
+      <c r="AE70" s="42"/>
+      <c r="AF70" s="42"/>
+      <c r="AG70" s="20"/>
+    </row>
+    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A71" s="34">
         <v>6</v>
       </c>
-      <c r="B71" s="18">
-        <v>30.8</v>
-      </c>
-      <c r="C71" s="19">
-        <v>310.98700000000002</v>
+      <c r="B71" s="7">
+        <v>28.3</v>
+      </c>
+      <c r="C71" s="8">
+        <v>247.285</v>
       </c>
       <c r="D71" s="9">
-        <v>0.8</v>
+        <v>0.63</v>
       </c>
       <c r="E71" s="9">
-        <v>0.56000000000000005</v>
+        <v>1.2E-2</v>
       </c>
       <c r="F71" s="10">
-        <v>623</v>
+        <v>558</v>
       </c>
       <c r="G71" s="11">
         <v>1</v>
       </c>
       <c r="H71" s="12">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="I71" s="13">
-        <v>632</v>
+        <v>566</v>
       </c>
       <c r="J71" s="11">
         <v>1</v>
       </c>
       <c r="K71" s="14">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="L71" s="15">
-        <v>32.635599999999997</v>
+        <v>28.769500000000001</v>
       </c>
       <c r="M71" s="16">
-        <v>47.553699999999999</v>
+        <v>59.085500000000003</v>
       </c>
       <c r="N71" s="16">
-        <v>19.717400000000001</v>
+        <v>11.1052</v>
       </c>
       <c r="O71" s="16">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="P71" s="16">
-        <v>27.083333333333332</v>
+        <v>23.809523809523807</v>
       </c>
       <c r="Q71" s="16">
-        <v>22.916666666666664</v>
+        <v>25.396825396825395</v>
       </c>
       <c r="R71" s="16">
-        <v>50</v>
+        <v>50.793650793650791</v>
       </c>
       <c r="S71" s="16">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="T71" s="16">
-        <v>5.085</v>
+        <v>5.7953400000000004</v>
       </c>
       <c r="U71" s="16">
-        <v>1427.05</v>
+        <v>1641.01</v>
       </c>
       <c r="V71" s="16">
-        <v>61.5518</v>
+        <v>65.724599999999995</v>
       </c>
       <c r="W71" s="17">
-        <v>37.234999999999999</v>
+        <v>33.408900000000003</v>
       </c>
       <c r="X71" s="15"/>
       <c r="Y71" s="16"/>
@@ -7653,75 +7506,75 @@
       <c r="AF71" s="16"/>
       <c r="AG71" s="17"/>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A72" s="34">
         <v>6</v>
       </c>
-      <c r="B72" s="7">
-        <v>34.090000000000003</v>
-      </c>
-      <c r="C72" s="8">
-        <v>257.39600000000002</v>
+      <c r="B72" s="18">
+        <v>30.8</v>
+      </c>
+      <c r="C72" s="19">
+        <v>310.98700000000002</v>
       </c>
       <c r="D72" s="9">
-        <v>1.53</v>
+        <v>0.8</v>
       </c>
       <c r="E72" s="9">
-        <v>1.1599999999999999</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F72" s="10">
-        <v>690</v>
+        <v>623</v>
       </c>
       <c r="G72" s="11">
         <v>1</v>
       </c>
       <c r="H72" s="12">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="I72" s="13">
-        <v>699</v>
+        <v>632</v>
       </c>
       <c r="J72" s="11">
         <v>1</v>
       </c>
       <c r="K72" s="14">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="L72" s="15">
-        <v>45.580599999999997</v>
+        <v>32.635599999999997</v>
       </c>
       <c r="M72" s="16">
-        <v>34.408700000000003</v>
+        <v>47.553699999999999</v>
       </c>
       <c r="N72" s="16">
-        <v>19.077500000000001</v>
+        <v>19.717400000000001</v>
       </c>
       <c r="O72" s="16">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="P72" s="16">
-        <v>33.928571428571431</v>
+        <v>27.083333333333332</v>
       </c>
       <c r="Q72" s="16">
-        <v>16.071428571428573</v>
+        <v>22.916666666666664</v>
       </c>
       <c r="R72" s="16">
         <v>50</v>
       </c>
       <c r="S72" s="16">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T72" s="16">
-        <v>5.2614599999999996</v>
+        <v>5.085</v>
       </c>
       <c r="U72" s="16">
-        <v>1552.34</v>
+        <v>1427.05</v>
       </c>
       <c r="V72" s="16">
-        <v>58.418900000000001</v>
+        <v>61.5518</v>
       </c>
       <c r="W72" s="17">
-        <v>41.407800000000002</v>
+        <v>37.234999999999999</v>
       </c>
       <c r="X72" s="15"/>
       <c r="Y72" s="16"/>
@@ -7734,75 +7587,75 @@
       <c r="AF72" s="16"/>
       <c r="AG72" s="17"/>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A73" s="34">
         <v>6</v>
       </c>
-      <c r="B73" s="18">
-        <v>30.45</v>
-      </c>
-      <c r="C73" s="19">
-        <v>309.62599999999998</v>
+      <c r="B73" s="7">
+        <v>34.090000000000003</v>
+      </c>
+      <c r="C73" s="8">
+        <v>257.39600000000002</v>
       </c>
       <c r="D73" s="9">
-        <v>0.97</v>
+        <v>1.53</v>
       </c>
       <c r="E73" s="9">
-        <v>0.75</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="F73" s="10">
-        <v>755</v>
+        <v>690</v>
       </c>
       <c r="G73" s="11">
         <v>1</v>
       </c>
       <c r="H73" s="12">
+        <v>10</v>
+      </c>
+      <c r="I73" s="13">
+        <v>699</v>
+      </c>
+      <c r="J73" s="11">
+        <v>1</v>
+      </c>
+      <c r="K73" s="14">
         <v>9</v>
       </c>
-      <c r="I73" s="13">
-        <v>766</v>
-      </c>
-      <c r="J73" s="11">
-        <v>1</v>
-      </c>
-      <c r="K73" s="14">
-        <v>25</v>
-      </c>
       <c r="L73" s="15">
-        <v>41.941099999999999</v>
+        <v>45.580599999999997</v>
       </c>
       <c r="M73" s="16">
-        <v>38.1282</v>
+        <v>34.408700000000003</v>
       </c>
       <c r="N73" s="16">
-        <v>19.237400000000001</v>
+        <v>19.077500000000001</v>
       </c>
       <c r="O73" s="16">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="P73" s="16">
-        <v>36.666666666666664</v>
+        <v>33.928571428571431</v>
       </c>
       <c r="Q73" s="16">
-        <v>13.333333333333334</v>
+        <v>16.071428571428573</v>
       </c>
       <c r="R73" s="16">
         <v>50</v>
       </c>
       <c r="S73" s="16">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="T73" s="16">
-        <v>5.0480999999999998</v>
+        <v>5.2614599999999996</v>
       </c>
       <c r="U73" s="16">
-        <v>1467.18</v>
+        <v>1552.34</v>
       </c>
       <c r="V73" s="16">
-        <v>60.072000000000003</v>
+        <v>58.418900000000001</v>
       </c>
       <c r="W73" s="17">
-        <v>39.2881</v>
+        <v>41.407800000000002</v>
       </c>
       <c r="X73" s="15"/>
       <c r="Y73" s="16"/>
@@ -7815,1033 +7668,1114 @@
       <c r="AF73" s="16"/>
       <c r="AG73" s="17"/>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A74" s="34">
         <v>6</v>
       </c>
-      <c r="B74" s="7">
-        <v>29.7</v>
-      </c>
-      <c r="C74" s="8">
-        <v>1281.82</v>
+      <c r="B74" s="18">
+        <v>30.45</v>
+      </c>
+      <c r="C74" s="19">
+        <v>309.62599999999998</v>
       </c>
       <c r="D74" s="9">
-        <v>1.07</v>
+        <v>0.97</v>
       </c>
       <c r="E74" s="9">
-        <v>0.54</v>
+        <v>0.75</v>
       </c>
       <c r="F74" s="10">
-        <v>512</v>
+        <v>755</v>
       </c>
       <c r="G74" s="11">
         <v>1</v>
       </c>
       <c r="H74" s="12">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="I74" s="13">
-        <v>521</v>
+        <v>766</v>
       </c>
       <c r="J74" s="11">
         <v>1</v>
       </c>
       <c r="K74" s="14">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="L74" s="15">
-        <v>45.5139</v>
+        <v>41.941099999999999</v>
       </c>
       <c r="M74" s="16">
-        <v>17.7043</v>
+        <v>38.1282</v>
       </c>
       <c r="N74" s="16">
-        <v>36.208500000000001</v>
+        <v>19.237400000000001</v>
       </c>
       <c r="O74" s="16">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="P74" s="16">
-        <v>35.483870967741936</v>
+        <v>36.666666666666664</v>
       </c>
       <c r="Q74" s="16">
-        <v>16.129032258064516</v>
+        <v>13.333333333333334</v>
       </c>
       <c r="R74" s="16">
-        <v>48.387096774193552</v>
+        <v>50</v>
       </c>
       <c r="S74" s="16">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T74" s="16">
-        <v>2.5288300000000001</v>
+        <v>5.0480999999999998</v>
       </c>
       <c r="U74" s="16">
-        <v>737.00199999999995</v>
+        <v>1467.18</v>
       </c>
       <c r="V74" s="16">
-        <v>39.6614</v>
+        <v>60.072000000000003</v>
       </c>
       <c r="W74" s="17">
-        <v>59.778700000000001</v>
-      </c>
-      <c r="X74" s="15">
-        <v>36.319999999999993</v>
-      </c>
-      <c r="Y74" s="16">
-        <v>87.90666666666668</v>
-      </c>
-      <c r="Z74" s="11">
-        <v>193</v>
-      </c>
-      <c r="AA74" s="16">
-        <v>20.725388601036268</v>
-      </c>
-      <c r="AB74" s="16">
-        <v>79.274611398963728</v>
-      </c>
-      <c r="AC74" s="11">
-        <v>20</v>
-      </c>
-      <c r="AD74" s="16">
-        <v>8.8829600000000006</v>
-      </c>
-      <c r="AE74" s="16">
-        <v>2663.47</v>
-      </c>
-      <c r="AF74" s="16">
-        <v>79.52</v>
-      </c>
-      <c r="AG74" s="20">
-        <v>20.479999999999997</v>
-      </c>
-    </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.2">
+        <v>39.2881</v>
+      </c>
+      <c r="X74" s="15"/>
+      <c r="Y74" s="16"/>
+      <c r="Z74" s="11"/>
+      <c r="AA74" s="16"/>
+      <c r="AB74" s="16"/>
+      <c r="AC74" s="11"/>
+      <c r="AD74" s="16"/>
+      <c r="AE74" s="16"/>
+      <c r="AF74" s="16"/>
+      <c r="AG74" s="17"/>
+    </row>
+    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A75" s="34">
         <v>6</v>
       </c>
-      <c r="B75" s="18">
-        <v>31.1</v>
-      </c>
-      <c r="C75" s="19">
-        <v>196.39400000000001</v>
+      <c r="B75" s="7">
+        <v>29.7</v>
+      </c>
+      <c r="C75" s="8">
+        <v>1281.82</v>
       </c>
       <c r="D75" s="9">
-        <v>1.46</v>
+        <v>1.07</v>
       </c>
       <c r="E75" s="9">
-        <v>0.64</v>
+        <v>0.54</v>
       </c>
       <c r="F75" s="10">
-        <v>579</v>
+        <v>512</v>
       </c>
       <c r="G75" s="11">
         <v>1</v>
       </c>
       <c r="H75" s="12">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="I75" s="13">
-        <v>586</v>
+        <v>521</v>
       </c>
       <c r="J75" s="11">
         <v>1</v>
       </c>
       <c r="K75" s="14">
+        <v>32</v>
+      </c>
+      <c r="L75" s="15">
+        <v>45.5139</v>
+      </c>
+      <c r="M75" s="16">
+        <v>17.7043</v>
+      </c>
+      <c r="N75" s="16">
+        <v>36.208500000000001</v>
+      </c>
+      <c r="O75" s="16">
         <v>31</v>
       </c>
-      <c r="L75" s="15">
-        <v>18.304200000000002</v>
-      </c>
-      <c r="M75" s="16">
-        <v>57.418999999999997</v>
-      </c>
-      <c r="N75" s="16">
-        <v>23.130199999999999</v>
-      </c>
-      <c r="O75" s="16">
-        <v>63</v>
-      </c>
       <c r="P75" s="16">
-        <v>33.333333333333329</v>
+        <v>35.483870967741936</v>
       </c>
       <c r="Q75" s="16">
-        <v>25.396825396825395</v>
+        <v>16.129032258064516</v>
       </c>
       <c r="R75" s="16">
-        <v>41.269841269841265</v>
+        <v>48.387096774193552</v>
       </c>
       <c r="S75" s="16">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="T75" s="16">
-        <v>5.3229699999999998</v>
+        <v>2.5288300000000001</v>
       </c>
       <c r="U75" s="16">
-        <v>1559.42</v>
+        <v>737.00199999999995</v>
       </c>
       <c r="V75" s="16">
-        <v>55.0593</v>
+        <v>39.6614</v>
       </c>
       <c r="W75" s="17">
-        <v>44.594099999999997</v>
+        <v>59.778700000000001</v>
       </c>
       <c r="X75" s="15">
-        <v>20.759999999999998</v>
+        <v>36.319999999999993</v>
       </c>
       <c r="Y75" s="16">
-        <v>93.093333333333334</v>
+        <v>87.90666666666668</v>
       </c>
       <c r="Z75" s="11">
-        <v>276</v>
+        <v>193</v>
       </c>
       <c r="AA75" s="16">
-        <v>19.565217391304348</v>
+        <v>20.725388601036268</v>
       </c>
       <c r="AB75" s="16">
-        <v>80.434782608695656</v>
+        <v>79.274611398963728</v>
       </c>
       <c r="AC75" s="11">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AD75" s="16">
-        <v>12.190799999999999</v>
+        <v>8.8829600000000006</v>
       </c>
       <c r="AE75" s="16">
-        <v>3655.3</v>
+        <v>2663.47</v>
       </c>
       <c r="AF75" s="16">
-        <v>86.306666666666672</v>
-      </c>
-      <c r="AG75" s="17">
-        <v>13.693333333333332</v>
-      </c>
-    </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.2">
+        <v>79.52</v>
+      </c>
+      <c r="AG75" s="20">
+        <v>20.479999999999997</v>
+      </c>
+    </row>
+    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A76" s="34">
         <v>6</v>
       </c>
-      <c r="B76" s="7">
-        <v>27.8</v>
-      </c>
-      <c r="C76" s="8">
-        <v>378.22699999999998</v>
+      <c r="B76" s="18">
+        <v>31.1</v>
+      </c>
+      <c r="C76" s="19">
+        <v>196.39400000000001</v>
       </c>
       <c r="D76" s="9">
-        <v>0.92</v>
+        <v>1.46</v>
       </c>
       <c r="E76" s="9">
-        <v>0.48</v>
+        <v>0.64</v>
       </c>
       <c r="F76" s="10">
-        <v>644</v>
+        <v>579</v>
       </c>
       <c r="G76" s="11">
         <v>1</v>
       </c>
       <c r="H76" s="12">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I76" s="13">
-        <v>652</v>
+        <v>586</v>
       </c>
       <c r="J76" s="11">
         <v>1</v>
       </c>
       <c r="K76" s="14">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="L76" s="15">
-        <v>17.504300000000001</v>
+        <v>18.304200000000002</v>
       </c>
       <c r="M76" s="16">
-        <v>55.565899999999999</v>
+        <v>57.418999999999997</v>
       </c>
       <c r="N76" s="16">
-        <v>25.6233</v>
+        <v>23.130199999999999</v>
       </c>
       <c r="O76" s="16">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="P76" s="16">
-        <v>19.298245614035086</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="Q76" s="16">
-        <v>31.578947368421051</v>
+        <v>25.396825396825395</v>
       </c>
       <c r="R76" s="16">
-        <v>49.122807017543856</v>
+        <v>41.269841269841265</v>
       </c>
       <c r="S76" s="16">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T76" s="16">
-        <v>5.4478299999999997</v>
+        <v>5.3229699999999998</v>
       </c>
       <c r="U76" s="16">
-        <v>1591.86</v>
+        <v>1559.42</v>
       </c>
       <c r="V76" s="16">
-        <v>61.378500000000003</v>
+        <v>55.0593</v>
       </c>
       <c r="W76" s="17">
-        <v>38.248199999999997</v>
+        <v>44.594099999999997</v>
       </c>
       <c r="X76" s="15">
-        <v>24.04</v>
+        <v>20.759999999999998</v>
       </c>
       <c r="Y76" s="16">
-        <v>91.90666666666668</v>
+        <v>93.093333333333334</v>
       </c>
       <c r="Z76" s="11">
-        <v>222</v>
+        <v>276</v>
       </c>
       <c r="AA76" s="16">
-        <v>17.117117117117118</v>
+        <v>19.565217391304348</v>
       </c>
       <c r="AB76" s="16">
-        <v>82.882882882882882</v>
+        <v>80.434782608695656</v>
       </c>
       <c r="AC76" s="11">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AD76" s="16">
-        <v>9.9218299999999999</v>
+        <v>12.190799999999999</v>
       </c>
       <c r="AE76" s="16">
-        <v>2974.17</v>
+        <v>3655.3</v>
       </c>
       <c r="AF76" s="16">
-        <v>81.853333333333339</v>
+        <v>86.306666666666672</v>
       </c>
       <c r="AG76" s="17">
-        <v>18.146666666666668</v>
-      </c>
-    </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.2">
+        <v>13.693333333333332</v>
+      </c>
+    </row>
+    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A77" s="34">
         <v>6</v>
       </c>
-      <c r="B77" s="18">
-        <v>31.7</v>
-      </c>
-      <c r="C77" s="19">
-        <v>585.59199999999998</v>
+      <c r="B77" s="7">
+        <v>27.8</v>
+      </c>
+      <c r="C77" s="8">
+        <v>378.22699999999998</v>
       </c>
       <c r="D77" s="9">
-        <v>2.06</v>
+        <v>0.92</v>
       </c>
       <c r="E77" s="9">
-        <v>1.04</v>
+        <v>0.48</v>
       </c>
       <c r="F77" s="10">
-        <v>709</v>
+        <v>644</v>
       </c>
       <c r="G77" s="11">
         <v>1</v>
       </c>
       <c r="H77" s="12">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="I77" s="13">
-        <v>717</v>
+        <v>652</v>
       </c>
       <c r="J77" s="11">
         <v>1</v>
       </c>
       <c r="K77" s="14">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="L77" s="15">
-        <v>45.913899999999998</v>
+        <v>17.504300000000001</v>
       </c>
       <c r="M77" s="16">
-        <v>40.0747</v>
+        <v>55.565899999999999</v>
       </c>
       <c r="N77" s="16">
-        <v>13.0916</v>
+        <v>25.6233</v>
       </c>
       <c r="O77" s="16">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="P77" s="16">
+        <v>19.298245614035086</v>
+      </c>
+      <c r="Q77" s="16">
         <v>31.578947368421051</v>
       </c>
-      <c r="Q77" s="16">
-        <v>21.052631578947366</v>
-      </c>
       <c r="R77" s="16">
-        <v>47.368421052631575</v>
+        <v>49.122807017543856</v>
       </c>
       <c r="S77" s="16">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="T77" s="16">
-        <v>4.5392900000000003</v>
+        <v>5.4478299999999997</v>
       </c>
       <c r="U77" s="16">
-        <v>1309.8599999999999</v>
+        <v>1591.86</v>
       </c>
       <c r="V77" s="16">
-        <v>57.298999999999999</v>
+        <v>61.378500000000003</v>
       </c>
       <c r="W77" s="17">
-        <v>42.140999999999998</v>
+        <v>38.248199999999997</v>
       </c>
       <c r="X77" s="15">
-        <v>46.96</v>
+        <v>24.04</v>
       </c>
       <c r="Y77" s="16">
-        <v>84.36</v>
+        <v>91.90666666666668</v>
       </c>
       <c r="Z77" s="11">
-        <v>300</v>
+        <v>222</v>
       </c>
       <c r="AA77" s="16">
-        <v>29.666666666666668</v>
+        <v>17.117117117117118</v>
       </c>
       <c r="AB77" s="16">
-        <v>70.333333333333343</v>
+        <v>82.882882882882882</v>
       </c>
       <c r="AC77" s="11">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AD77" s="16">
-        <v>12.8201</v>
+        <v>9.9218299999999999</v>
       </c>
       <c r="AE77" s="16">
-        <v>3842.95</v>
+        <v>2974.17</v>
       </c>
       <c r="AF77" s="16">
-        <v>91.173333333333332</v>
+        <v>81.853333333333339</v>
       </c>
       <c r="AG77" s="17">
-        <v>8.826666666666668</v>
-      </c>
-    </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.2">
+        <v>18.146666666666668</v>
+      </c>
+    </row>
+    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A78" s="34">
         <v>6</v>
       </c>
-      <c r="B78" s="7">
-        <v>33.5</v>
-      </c>
-      <c r="C78" s="8">
-        <v>325.34399999999999</v>
+      <c r="B78" s="18">
+        <v>31.7</v>
+      </c>
+      <c r="C78" s="19">
+        <v>585.59199999999998</v>
       </c>
       <c r="D78" s="9">
-        <v>2.5499999999999998</v>
+        <v>2.06</v>
       </c>
       <c r="E78" s="9">
-        <v>1.25</v>
+        <v>1.04</v>
       </c>
       <c r="F78" s="10">
-        <v>774</v>
+        <v>709</v>
       </c>
       <c r="G78" s="11">
         <v>1</v>
       </c>
       <c r="H78" s="12">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="I78" s="13">
-        <v>781</v>
+        <v>717</v>
       </c>
       <c r="J78" s="11">
         <v>1</v>
       </c>
       <c r="K78" s="14">
+        <v>33</v>
+      </c>
+      <c r="L78" s="15">
+        <v>45.913899999999998</v>
+      </c>
+      <c r="M78" s="16">
+        <v>40.0747</v>
+      </c>
+      <c r="N78" s="16">
+        <v>13.0916</v>
+      </c>
+      <c r="O78" s="16">
         <v>38</v>
       </c>
-      <c r="L78" s="15">
-        <v>33.715499999999999</v>
-      </c>
-      <c r="M78" s="16">
-        <v>53.392899999999997</v>
-      </c>
-      <c r="N78" s="16">
-        <v>10.9452</v>
-      </c>
-      <c r="O78" s="16">
-        <v>57</v>
-      </c>
       <c r="P78" s="16">
-        <v>33.333333333333329</v>
+        <v>31.578947368421051</v>
       </c>
       <c r="Q78" s="16">
-        <v>28.07017543859649</v>
+        <v>21.052631578947366</v>
       </c>
       <c r="R78" s="16">
-        <v>38.596491228070171</v>
+        <v>47.368421052631575</v>
       </c>
       <c r="S78" s="16">
+        <v>39</v>
+      </c>
+      <c r="T78" s="16">
+        <v>4.5392900000000003</v>
+      </c>
+      <c r="U78" s="16">
+        <v>1309.8599999999999</v>
+      </c>
+      <c r="V78" s="16">
+        <v>57.298999999999999</v>
+      </c>
+      <c r="W78" s="17">
+        <v>42.140999999999998</v>
+      </c>
+      <c r="X78" s="15">
+        <v>46.96</v>
+      </c>
+      <c r="Y78" s="16">
+        <v>84.36</v>
+      </c>
+      <c r="Z78" s="11">
+        <v>300</v>
+      </c>
+      <c r="AA78" s="16">
+        <v>29.666666666666668</v>
+      </c>
+      <c r="AB78" s="16">
+        <v>70.333333333333343</v>
+      </c>
+      <c r="AC78" s="11">
         <v>25</v>
       </c>
-      <c r="T78" s="16">
-        <v>5.4642799999999996</v>
-      </c>
-      <c r="U78" s="16">
-        <v>1606.28</v>
-      </c>
-      <c r="V78" s="16">
-        <v>54.699399999999997</v>
-      </c>
-      <c r="W78" s="17">
-        <v>45.0473</v>
-      </c>
-      <c r="X78" s="15">
-        <v>15.68</v>
-      </c>
-      <c r="Y78" s="16">
-        <v>94.786666666666676</v>
-      </c>
-      <c r="Z78" s="11">
-        <v>190</v>
-      </c>
-      <c r="AA78" s="16">
-        <v>11.578947368421053</v>
-      </c>
-      <c r="AB78" s="16">
-        <v>88.421052631578945</v>
-      </c>
-      <c r="AC78" s="11">
-        <v>18</v>
-      </c>
       <c r="AD78" s="16">
-        <v>9.0396599999999996</v>
+        <v>12.8201</v>
       </c>
       <c r="AE78" s="16">
-        <v>2710.45</v>
+        <v>3842.95</v>
       </c>
       <c r="AF78" s="16">
-        <v>82.531004133884522</v>
+        <v>91.173333333333332</v>
       </c>
       <c r="AG78" s="17">
-        <v>17.468995866115485</v>
-      </c>
-    </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.2">
+        <v>8.826666666666668</v>
+      </c>
+    </row>
+    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A79" s="34">
         <v>6</v>
       </c>
-      <c r="B79" s="18">
-        <v>24.1</v>
-      </c>
-      <c r="C79" s="19">
-        <v>249.852</v>
+      <c r="B79" s="7">
+        <v>33.5</v>
+      </c>
+      <c r="C79" s="8">
+        <v>325.34399999999999</v>
       </c>
       <c r="D79" s="9">
-        <v>0.27</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="E79" s="9">
-        <v>0.4</v>
+        <v>1.25</v>
       </c>
       <c r="F79" s="10">
-        <v>496</v>
+        <v>774</v>
       </c>
       <c r="G79" s="11">
         <v>1</v>
       </c>
       <c r="H79" s="12">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="I79" s="13">
-        <v>494</v>
+        <v>781</v>
       </c>
       <c r="J79" s="11">
         <v>1</v>
       </c>
       <c r="K79" s="14">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L79" s="15">
-        <v>21.7971</v>
+        <v>33.715499999999999</v>
       </c>
       <c r="M79" s="16">
-        <v>64.631399999999999</v>
+        <v>53.392899999999997</v>
       </c>
       <c r="N79" s="16">
-        <v>12.5717</v>
+        <v>10.9452</v>
       </c>
       <c r="O79" s="16">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="P79" s="16">
-        <v>21.739130434782609</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="Q79" s="16">
-        <v>26.086956521739129</v>
+        <v>28.07017543859649</v>
       </c>
       <c r="R79" s="16">
-        <v>52.173913043478258</v>
+        <v>38.596491228070171</v>
       </c>
       <c r="S79" s="16">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="T79" s="16">
-        <v>4.36944</v>
+        <v>5.4642799999999996</v>
       </c>
       <c r="U79" s="16">
-        <v>1284.97</v>
+        <v>1606.28</v>
       </c>
       <c r="V79" s="16">
-        <v>55.645899999999997</v>
+        <v>54.699399999999997</v>
       </c>
       <c r="W79" s="17">
-        <v>44.140799999999999</v>
+        <v>45.0473</v>
       </c>
       <c r="X79" s="15">
-        <v>19.919999999999998</v>
+        <v>15.68</v>
       </c>
       <c r="Y79" s="16">
-        <v>93.373333333333321</v>
+        <v>94.786666666666676</v>
       </c>
       <c r="Z79" s="11">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="AA79" s="16">
-        <v>15.697674418604651</v>
+        <v>11.578947368421053</v>
       </c>
       <c r="AB79" s="16">
-        <v>84.302325581395351</v>
+        <v>88.421052631578945</v>
       </c>
       <c r="AC79" s="11">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AD79" s="16">
-        <v>8.3208599999999997</v>
+        <v>9.0396599999999996</v>
       </c>
       <c r="AE79" s="16">
-        <v>2494.9299999999998</v>
+        <v>2710.45</v>
       </c>
       <c r="AF79" s="16">
-        <v>72.773333333333341</v>
-      </c>
-      <c r="AG79" s="20">
-        <v>27.22666666666667</v>
-      </c>
-    </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.2">
+        <v>82.531004133884522</v>
+      </c>
+      <c r="AG79" s="17">
+        <v>17.468995866115485</v>
+      </c>
+    </row>
+    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A80" s="34">
         <v>6</v>
       </c>
-      <c r="B80" s="7">
-        <v>28.2</v>
-      </c>
-      <c r="C80" s="8">
-        <v>125.47799999999999</v>
+      <c r="B80" s="18">
+        <v>24.1</v>
+      </c>
+      <c r="C80" s="19">
+        <v>249.852</v>
       </c>
       <c r="D80" s="9">
-        <v>0.63</v>
+        <v>0.27</v>
       </c>
       <c r="E80" s="9">
-        <v>0.63</v>
+        <v>0.4</v>
       </c>
       <c r="F80" s="10">
-        <v>563</v>
+        <v>496</v>
       </c>
       <c r="G80" s="11">
         <v>1</v>
       </c>
       <c r="H80" s="12">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="I80" s="13">
-        <v>560</v>
+        <v>494</v>
       </c>
       <c r="J80" s="11">
         <v>1</v>
       </c>
       <c r="K80" s="14">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="L80" s="15">
-        <v>6.8196721311475414</v>
+        <v>21.7971</v>
       </c>
       <c r="M80" s="16">
-        <v>74.373770491803285</v>
+        <v>64.631399999999999</v>
       </c>
       <c r="N80" s="16">
-        <v>18.806557377049181</v>
+        <v>12.5717</v>
       </c>
       <c r="O80" s="16">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="P80" s="16">
-        <v>23.52941176470588</v>
+        <v>21.739130434782609</v>
       </c>
       <c r="Q80" s="16">
-        <v>31.372549019607842</v>
+        <v>26.086956521739129</v>
       </c>
       <c r="R80" s="16">
-        <v>45.098039215686278</v>
+        <v>52.173913043478258</v>
       </c>
       <c r="S80" s="16">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T80" s="16">
-        <v>4.0423099999999996</v>
+        <v>4.36944</v>
       </c>
       <c r="U80" s="16">
-        <v>1316.914</v>
+        <v>1284.97</v>
       </c>
       <c r="V80" s="16">
-        <v>49.205515430072225</v>
+        <v>55.645899999999997</v>
       </c>
       <c r="W80" s="17">
-        <v>50.794484569927768</v>
+        <v>44.140799999999999</v>
       </c>
       <c r="X80" s="15">
-        <v>16.36</v>
+        <v>19.919999999999998</v>
       </c>
       <c r="Y80" s="16">
-        <v>94.56</v>
+        <v>93.373333333333321</v>
       </c>
       <c r="Z80" s="11">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="AA80" s="16">
-        <v>17.676767676767678</v>
+        <v>15.697674418604651</v>
       </c>
       <c r="AB80" s="16">
-        <v>82.323232323232318</v>
+        <v>84.302325581395351</v>
       </c>
       <c r="AC80" s="11">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="AD80" s="16">
-        <v>10.004099999999999</v>
+        <v>8.3208599999999997</v>
       </c>
       <c r="AE80" s="16">
-        <v>2999.63</v>
+        <v>2494.9299999999998</v>
       </c>
       <c r="AF80" s="16">
-        <v>82.679999999999993</v>
-      </c>
-      <c r="AG80" s="17">
-        <v>17.32</v>
-      </c>
-    </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.2">
+        <v>72.773333333333341</v>
+      </c>
+      <c r="AG80" s="20">
+        <v>27.22666666666667</v>
+      </c>
+    </row>
+    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A81" s="34">
         <v>6</v>
       </c>
-      <c r="B81" s="18">
-        <v>28.1</v>
-      </c>
-      <c r="C81" s="19">
-        <v>182.374</v>
+      <c r="B81" s="7">
+        <v>28.2</v>
+      </c>
+      <c r="C81" s="8">
+        <v>125.47799999999999</v>
       </c>
       <c r="D81" s="9">
-        <v>0.8</v>
+        <v>0.63</v>
       </c>
       <c r="E81" s="9">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="F81" s="10">
-        <v>629</v>
+        <v>563</v>
       </c>
       <c r="G81" s="11">
         <v>1</v>
       </c>
       <c r="H81" s="12">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I81" s="13">
-        <v>625</v>
+        <v>560</v>
       </c>
       <c r="J81" s="11">
         <v>1</v>
       </c>
       <c r="K81" s="14">
-        <v>19</v>
-      </c>
-      <c r="L81" s="53">
-        <v>3.9194800000000001</v>
-      </c>
-      <c r="M81" s="54">
-        <v>56.6858</v>
-      </c>
-      <c r="N81" s="54">
-        <v>39.181399999999996</v>
-      </c>
-      <c r="O81" s="54">
+        <v>28</v>
+      </c>
+      <c r="L81" s="15">
+        <v>6.8196721311475414</v>
+      </c>
+      <c r="M81" s="16">
+        <v>74.373770491803285</v>
+      </c>
+      <c r="N81" s="16">
+        <v>18.806557377049181</v>
+      </c>
+      <c r="O81" s="16">
         <v>51</v>
       </c>
-      <c r="P81" s="54">
-        <v>21.568627450980394</v>
-      </c>
-      <c r="Q81" s="54">
-        <v>29.411764705882355</v>
-      </c>
-      <c r="R81" s="54">
-        <v>49.019607843137251</v>
-      </c>
-      <c r="S81" s="54">
-        <v>7</v>
-      </c>
-      <c r="T81" s="54">
-        <v>2.8712499999999999</v>
-      </c>
-      <c r="U81" s="54">
-        <v>851.95699999999999</v>
-      </c>
-      <c r="V81" s="54">
-        <v>43.700800000000001</v>
-      </c>
-      <c r="W81" s="55">
-        <v>56.125799999999998</v>
+      <c r="P81" s="16">
+        <v>23.52941176470588</v>
+      </c>
+      <c r="Q81" s="16">
+        <v>31.372549019607842</v>
+      </c>
+      <c r="R81" s="16">
+        <v>45.098039215686278</v>
+      </c>
+      <c r="S81" s="16">
+        <v>4</v>
+      </c>
+      <c r="T81" s="16">
+        <v>4.0423099999999996</v>
+      </c>
+      <c r="U81" s="16">
+        <v>1316.914</v>
+      </c>
+      <c r="V81" s="16">
+        <v>49.205515430072225</v>
+      </c>
+      <c r="W81" s="17">
+        <v>50.794484569927768</v>
       </c>
       <c r="X81" s="15">
-        <v>18.760000000000002</v>
+        <v>16.36</v>
       </c>
       <c r="Y81" s="16">
-        <v>93.706666666666649</v>
+        <v>94.56</v>
       </c>
       <c r="Z81" s="11">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="AA81" s="16">
-        <v>16.483516483516482</v>
+        <v>17.676767676767678</v>
       </c>
       <c r="AB81" s="16">
-        <v>83.516483516483518</v>
+        <v>82.323232323232318</v>
       </c>
       <c r="AC81" s="11">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AD81" s="16">
-        <v>9.4175500000000003</v>
+        <v>10.004099999999999</v>
       </c>
       <c r="AE81" s="16">
-        <v>2823.01</v>
+        <v>2999.63</v>
       </c>
       <c r="AF81" s="16">
-        <v>78.733333333333334</v>
+        <v>82.679999999999993</v>
       </c>
       <c r="AG81" s="17">
-        <v>21.266666666666666</v>
-      </c>
-    </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.2">
+        <v>17.32</v>
+      </c>
+    </row>
+    <row r="82" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A82" s="34">
         <v>6</v>
       </c>
-      <c r="B82" s="7">
+      <c r="B82" s="18">
+        <v>28.1</v>
+      </c>
+      <c r="C82" s="19">
+        <v>182.374</v>
+      </c>
+      <c r="D82" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="E82" s="9">
+        <v>0.71</v>
+      </c>
+      <c r="F82" s="10">
+        <v>629</v>
+      </c>
+      <c r="G82" s="11">
+        <v>1</v>
+      </c>
+      <c r="H82" s="12">
+        <v>26</v>
+      </c>
+      <c r="I82" s="13">
+        <v>625</v>
+      </c>
+      <c r="J82" s="11">
+        <v>1</v>
+      </c>
+      <c r="K82" s="14">
+        <v>19</v>
+      </c>
+      <c r="L82" s="54">
+        <v>3.9194800000000001</v>
+      </c>
+      <c r="M82" s="55">
+        <v>56.6858</v>
+      </c>
+      <c r="N82" s="55">
+        <v>39.181399999999996</v>
+      </c>
+      <c r="O82" s="55">
+        <v>51</v>
+      </c>
+      <c r="P82" s="55">
+        <v>21.568627450980394</v>
+      </c>
+      <c r="Q82" s="55">
+        <v>29.411764705882355</v>
+      </c>
+      <c r="R82" s="55">
+        <v>49.019607843137251</v>
+      </c>
+      <c r="S82" s="55">
+        <v>7</v>
+      </c>
+      <c r="T82" s="55">
+        <v>2.8712499999999999</v>
+      </c>
+      <c r="U82" s="55">
+        <v>851.95699999999999</v>
+      </c>
+      <c r="V82" s="55">
+        <v>43.700800000000001</v>
+      </c>
+      <c r="W82" s="56">
+        <v>56.125799999999998</v>
+      </c>
+      <c r="X82" s="15">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="Y82" s="16">
+        <v>93.706666666666649</v>
+      </c>
+      <c r="Z82" s="11">
+        <v>182</v>
+      </c>
+      <c r="AA82" s="16">
+        <v>16.483516483516482</v>
+      </c>
+      <c r="AB82" s="16">
+        <v>83.516483516483518</v>
+      </c>
+      <c r="AC82" s="11">
+        <v>42</v>
+      </c>
+      <c r="AD82" s="16">
+        <v>9.4175500000000003</v>
+      </c>
+      <c r="AE82" s="16">
+        <v>2823.01</v>
+      </c>
+      <c r="AF82" s="16">
+        <v>78.733333333333334</v>
+      </c>
+      <c r="AG82" s="17">
+        <v>21.266666666666666</v>
+      </c>
+    </row>
+    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A83" s="34">
+        <v>6</v>
+      </c>
+      <c r="B83" s="7">
         <v>29.9</v>
       </c>
-      <c r="C82" s="8">
+      <c r="C83" s="8">
         <v>313.93299999999999</v>
       </c>
-      <c r="D82" s="9">
+      <c r="D83" s="9">
         <v>0.94</v>
       </c>
-      <c r="E82" s="9">
+      <c r="E83" s="9">
         <v>0.28999999999999998</v>
       </c>
-      <c r="F82" s="10">
+      <c r="F83" s="10">
         <v>696</v>
       </c>
-      <c r="G82" s="11">
-        <v>1</v>
-      </c>
-      <c r="H82" s="12">
+      <c r="G83" s="11">
+        <v>1</v>
+      </c>
+      <c r="H83" s="12">
         <v>62</v>
       </c>
-      <c r="I82" s="13">
+      <c r="I83" s="13">
         <v>690</v>
       </c>
-      <c r="J82" s="11">
-        <v>1</v>
-      </c>
-      <c r="K82" s="14">
+      <c r="J83" s="11">
+        <v>1</v>
+      </c>
+      <c r="K83" s="14">
         <v>12</v>
       </c>
-      <c r="L82" s="42">
+      <c r="L83" s="42">
         <v>3.5062000000000002</v>
       </c>
-      <c r="M82" s="42">
+      <c r="M83" s="42">
         <v>75.443299999999994</v>
       </c>
-      <c r="N82" s="42">
+      <c r="N83" s="42">
         <v>20.463899999999999</v>
       </c>
-      <c r="O82" s="42">
+      <c r="O83" s="42">
         <v>41</v>
       </c>
-      <c r="P82" s="42">
+      <c r="P83" s="42">
         <v>14.634146341463413</v>
       </c>
-      <c r="Q82" s="42">
+      <c r="Q83" s="42">
         <v>31.707317073170731</v>
       </c>
-      <c r="R82" s="42">
+      <c r="R83" s="42">
         <v>53.658536585365859</v>
       </c>
-      <c r="S82" s="42">
+      <c r="S83" s="42">
         <v>7</v>
       </c>
-      <c r="T82" s="42">
+      <c r="T83" s="42">
         <v>3.6649799999999999</v>
       </c>
-      <c r="U82" s="42">
+      <c r="U83" s="42">
         <v>1064.31</v>
       </c>
-      <c r="V82" s="42">
+      <c r="V83" s="42">
         <v>51.753100000000003</v>
       </c>
-      <c r="W82" s="20">
+      <c r="W83" s="20">
         <v>47.860300000000002</v>
       </c>
-      <c r="X82" s="15">
+      <c r="X83" s="15">
         <v>30.439999999999998</v>
       </c>
-      <c r="Y82" s="16">
+      <c r="Y83" s="16">
         <v>89.866666666666674</v>
       </c>
-      <c r="Z82" s="11">
+      <c r="Z83" s="11">
         <v>225</v>
       </c>
-      <c r="AA82" s="16">
+      <c r="AA83" s="16">
         <v>22.666666666666664</v>
       </c>
-      <c r="AB82" s="16">
+      <c r="AB83" s="16">
         <v>77.333333333333329</v>
       </c>
-      <c r="AC82" s="11">
+      <c r="AC83" s="11">
         <v>21</v>
       </c>
-      <c r="AD82" s="16">
+      <c r="AD83" s="16">
         <v>10.0025</v>
       </c>
-      <c r="AE82" s="16">
+      <c r="AE83" s="16">
         <v>2999.14</v>
       </c>
-      <c r="AF82" s="16">
+      <c r="AF83" s="16">
         <v>83.52000000000001</v>
       </c>
-      <c r="AG82" s="17">
+      <c r="AG83" s="17">
         <v>16.48</v>
       </c>
     </row>
-    <row r="83" spans="1:33" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="43">
+    <row r="84" spans="1:33" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="43">
         <v>6</v>
       </c>
-      <c r="B83" s="44">
+      <c r="B84" s="44">
         <v>26.2</v>
       </c>
-      <c r="C83" s="23">
+      <c r="C84" s="23">
         <v>205.28700000000001</v>
       </c>
-      <c r="D83" s="24">
+      <c r="D84" s="24">
         <v>0.39</v>
       </c>
-      <c r="E83" s="24">
+      <c r="E84" s="24">
         <v>0.39</v>
       </c>
-      <c r="F83" s="25">
+      <c r="F84" s="25">
         <v>766</v>
       </c>
-      <c r="G83" s="26">
-        <v>1</v>
-      </c>
-      <c r="H83" s="27">
+      <c r="G84" s="26">
+        <v>1</v>
+      </c>
+      <c r="H84" s="27">
         <v>46</v>
       </c>
-      <c r="I83" s="28">
+      <c r="I84" s="28">
         <v>755</v>
       </c>
-      <c r="J83" s="26">
-        <v>1</v>
-      </c>
-      <c r="K83" s="29">
+      <c r="J84" s="26">
+        <v>1</v>
+      </c>
+      <c r="K84" s="29">
         <v>12</v>
       </c>
-      <c r="L83" s="31">
+      <c r="L84" s="31">
         <v>29.009499999999999</v>
       </c>
-      <c r="M83" s="31">
+      <c r="M84" s="31">
         <v>52.393000000000001</v>
       </c>
-      <c r="N83" s="31">
+      <c r="N84" s="31">
         <v>18.0776</v>
       </c>
-      <c r="O83" s="31">
+      <c r="O84" s="31">
         <v>49</v>
       </c>
-      <c r="P83" s="31">
+      <c r="P84" s="31">
         <v>18.367346938775512</v>
       </c>
-      <c r="Q83" s="31">
+      <c r="Q84" s="31">
         <v>30.612244897959183</v>
       </c>
-      <c r="R83" s="31">
+      <c r="R84" s="31">
         <v>51.020408163265309</v>
       </c>
-      <c r="S83" s="31">
+      <c r="S84" s="31">
         <v>18</v>
       </c>
-      <c r="T83" s="31">
+      <c r="T84" s="31">
         <v>4.6448299999999998</v>
       </c>
-      <c r="U83" s="31">
+      <c r="U84" s="31">
         <v>1364.65</v>
       </c>
-      <c r="V83" s="31">
+      <c r="V84" s="31">
         <v>57.179000000000002</v>
       </c>
-      <c r="W83" s="32">
+      <c r="W84" s="32">
         <v>42.487699999999997</v>
       </c>
-      <c r="X83" s="30">
+      <c r="X84" s="30">
         <v>12.08</v>
       </c>
-      <c r="Y83" s="31">
+      <c r="Y84" s="31">
         <v>95.986666666666679</v>
       </c>
-      <c r="Z83" s="26">
+      <c r="Z84" s="26">
         <v>240</v>
       </c>
-      <c r="AA83" s="31">
+      <c r="AA84" s="31">
         <v>13.750000000000002</v>
       </c>
-      <c r="AB83" s="31">
+      <c r="AB84" s="31">
         <v>86.25</v>
       </c>
-      <c r="AC83" s="26">
+      <c r="AC84" s="26">
         <v>28</v>
       </c>
-      <c r="AD83" s="31">
+      <c r="AD84" s="31">
         <v>11.5702</v>
       </c>
-      <c r="AE83" s="31">
+      <c r="AE84" s="31">
         <v>3467.35</v>
       </c>
-      <c r="AF83" s="31">
+      <c r="AF84" s="31">
         <v>84.866666666666674</v>
       </c>
-      <c r="AG83" s="32">
+      <c r="AG84" s="32">
         <v>15.133333333333333</v>
       </c>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A84" s="56"/>
-    </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A85" s="56"/>
-    </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A85" s="57"/>
+    </row>
+    <row r="86" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A86" s="57"/>
     </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A87" s="57"/>
-    </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A88" s="57"/>
-    </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A89" s="57"/>
+    <row r="87" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A87" s="58"/>
+    </row>
+    <row r="88" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A88" s="58"/>
+    </row>
+    <row r="89" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A89" s="58"/>
+    </row>
+    <row r="90" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A90" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
